--- a/requirement/web.xlsx
+++ b/requirement/web.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dao\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91279822-675E-42E2-AF7F-15509D61706E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8A78A-B3F0-4B70-B22A-8E6074F4A8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3C21019E-DC35-44AD-8223-71A9F4BE5FB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C21019E-DC35-44AD-8223-71A9F4BE5FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Màn hình đăng nhập" sheetId="1" r:id="rId1"/>
@@ -6815,38 +6815,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6857,20 +6842,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6878,7 +6851,61 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6892,33 +6919,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23482,8 +23482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E37E14C-5C4F-4CF9-8438-25137DC3D5CC}">
   <dimension ref="A1:S315"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24115,24 +24115,24 @@
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="136" t="s">
+      <c r="D37" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="136"/>
-      <c r="S37" s="136"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="120"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
@@ -24170,45 +24170,45 @@
         <v>39</v>
       </c>
       <c r="C52" s="21"/>
-      <c r="D52" s="132" t="s">
+      <c r="D52" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="133"/>
-      <c r="P52" s="133"/>
-      <c r="Q52" s="133"/>
-      <c r="R52" s="133"/>
-      <c r="S52" s="134"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="123"/>
     </row>
     <row r="53" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="34"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="131"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="125"/>
+      <c r="O53" s="125"/>
+      <c r="P53" s="125"/>
+      <c r="Q53" s="125"/>
+      <c r="R53" s="125"/>
+      <c r="S53" s="126"/>
     </row>
     <row r="54" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
@@ -24326,7 +24326,7 @@
       <c r="Q57" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="R57" s="135" t="s">
+      <c r="R57" s="132" t="s">
         <v>58</v>
       </c>
       <c r="S57" s="42"/>
@@ -24353,7 +24353,7 @@
       </c>
       <c r="P58" s="91"/>
       <c r="Q58" s="50"/>
-      <c r="R58" s="135"/>
+      <c r="R58" s="132"/>
       <c r="S58" s="42"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -24955,24 +24955,24 @@
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="136" t="s">
+      <c r="D78" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="136"/>
-      <c r="F78" s="136"/>
-      <c r="G78" s="136"/>
-      <c r="H78" s="136"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="136"/>
-      <c r="K78" s="136"/>
-      <c r="L78" s="136"/>
-      <c r="M78" s="136"/>
-      <c r="N78" s="136"/>
-      <c r="O78" s="136"/>
-      <c r="P78" s="136"/>
-      <c r="Q78" s="136"/>
-      <c r="R78" s="136"/>
-      <c r="S78" s="136"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="120"/>
+      <c r="Q78" s="120"/>
+      <c r="R78" s="120"/>
+      <c r="S78" s="120"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
@@ -25011,45 +25011,45 @@
         <v>39</v>
       </c>
       <c r="C93" s="21"/>
-      <c r="D93" s="132" t="s">
+      <c r="D93" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="133"/>
-      <c r="F93" s="133"/>
-      <c r="G93" s="133"/>
-      <c r="H93" s="133"/>
-      <c r="I93" s="133"/>
-      <c r="J93" s="133"/>
-      <c r="K93" s="133"/>
-      <c r="L93" s="133"/>
-      <c r="M93" s="133"/>
-      <c r="N93" s="133"/>
-      <c r="O93" s="133"/>
-      <c r="P93" s="133"/>
-      <c r="Q93" s="133"/>
-      <c r="R93" s="133"/>
-      <c r="S93" s="134"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="122"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="122"/>
+      <c r="M93" s="122"/>
+      <c r="N93" s="122"/>
+      <c r="O93" s="122"/>
+      <c r="P93" s="122"/>
+      <c r="Q93" s="122"/>
+      <c r="R93" s="122"/>
+      <c r="S93" s="123"/>
     </row>
     <row r="94" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="34"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="129"/>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="130"/>
-      <c r="L94" s="130"/>
-      <c r="M94" s="130"/>
-      <c r="N94" s="130"/>
-      <c r="O94" s="130"/>
-      <c r="P94" s="130"/>
-      <c r="Q94" s="130"/>
-      <c r="R94" s="130"/>
-      <c r="S94" s="131"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="125"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="125"/>
+      <c r="L94" s="125"/>
+      <c r="M94" s="125"/>
+      <c r="N94" s="125"/>
+      <c r="O94" s="125"/>
+      <c r="P94" s="125"/>
+      <c r="Q94" s="125"/>
+      <c r="R94" s="125"/>
+      <c r="S94" s="126"/>
     </row>
     <row r="95" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
@@ -25146,12 +25146,12 @@
       <c r="J98" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="K98" s="120" t="s">
+      <c r="K98" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="L98" s="127"/>
-      <c r="M98" s="127"/>
-      <c r="N98" s="121"/>
+      <c r="L98" s="136"/>
+      <c r="M98" s="136"/>
+      <c r="N98" s="134"/>
       <c r="O98" s="56" t="s">
         <v>56</v>
       </c>
@@ -25161,7 +25161,7 @@
       <c r="Q98" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="R98" s="135" t="s">
+      <c r="R98" s="132" t="s">
         <v>58</v>
       </c>
       <c r="S98" s="42"/>
@@ -25179,16 +25179,16 @@
       <c r="H99" s="48"/>
       <c r="I99" s="48"/>
       <c r="J99" s="48"/>
-      <c r="K99" s="122"/>
-      <c r="L99" s="128"/>
-      <c r="M99" s="128"/>
-      <c r="N99" s="123"/>
+      <c r="K99" s="118"/>
+      <c r="L99" s="137"/>
+      <c r="M99" s="137"/>
+      <c r="N99" s="119"/>
       <c r="O99" s="49" t="s">
         <v>61</v>
       </c>
       <c r="P99" s="91"/>
       <c r="Q99" s="50"/>
-      <c r="R99" s="135"/>
+      <c r="R99" s="132"/>
       <c r="S99" s="42"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
@@ -25239,12 +25239,12 @@
       <c r="J101" s="47">
         <v>43445</v>
       </c>
-      <c r="K101" s="124" t="s">
+      <c r="K101" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L101" s="125"/>
-      <c r="M101" s="125"/>
-      <c r="N101" s="126"/>
+      <c r="L101" s="135"/>
+      <c r="M101" s="135"/>
+      <c r="N101" s="131"/>
       <c r="O101" s="57" t="s">
         <v>80</v>
       </c>
@@ -25280,12 +25280,12 @@
       <c r="J102" s="47">
         <v>766</v>
       </c>
-      <c r="K102" s="124" t="s">
+      <c r="K102" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L102" s="125"/>
-      <c r="M102" s="125"/>
-      <c r="N102" s="126"/>
+      <c r="L102" s="135"/>
+      <c r="M102" s="135"/>
+      <c r="N102" s="131"/>
       <c r="O102" s="57" t="s">
         <v>80</v>
       </c>
@@ -25321,12 +25321,12 @@
       <c r="J103" s="47">
         <v>8</v>
       </c>
-      <c r="K103" s="124" t="s">
+      <c r="K103" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L103" s="125"/>
-      <c r="M103" s="125"/>
-      <c r="N103" s="126"/>
+      <c r="L103" s="135"/>
+      <c r="M103" s="135"/>
+      <c r="N103" s="131"/>
       <c r="O103" s="47" t="s">
         <v>81</v>
       </c>
@@ -25364,12 +25364,12 @@
       <c r="J104" s="47">
         <v>786</v>
       </c>
-      <c r="K104" s="124" t="s">
+      <c r="K104" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L104" s="125"/>
-      <c r="M104" s="125"/>
-      <c r="N104" s="126"/>
+      <c r="L104" s="135"/>
+      <c r="M104" s="135"/>
+      <c r="N104" s="131"/>
       <c r="O104" s="47" t="s">
         <v>84</v>
       </c>
@@ -25405,12 +25405,12 @@
       <c r="J105" s="47">
         <v>8</v>
       </c>
-      <c r="K105" s="124" t="s">
+      <c r="K105" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L105" s="125"/>
-      <c r="M105" s="125"/>
-      <c r="N105" s="126"/>
+      <c r="L105" s="135"/>
+      <c r="M105" s="135"/>
+      <c r="N105" s="131"/>
       <c r="O105" s="47" t="s">
         <v>82</v>
       </c>
@@ -25446,12 +25446,12 @@
       <c r="J106" s="47">
         <v>6875</v>
       </c>
-      <c r="K106" s="124" t="s">
+      <c r="K106" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L106" s="125"/>
-      <c r="M106" s="125"/>
-      <c r="N106" s="126"/>
+      <c r="L106" s="135"/>
+      <c r="M106" s="135"/>
+      <c r="N106" s="131"/>
       <c r="O106" s="47" t="s">
         <v>83</v>
       </c>
@@ -25485,12 +25485,12 @@
       <c r="J107" s="47">
         <v>55675</v>
       </c>
-      <c r="K107" s="124" t="s">
+      <c r="K107" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L107" s="125"/>
-      <c r="M107" s="125"/>
-      <c r="N107" s="126"/>
+      <c r="L107" s="135"/>
+      <c r="M107" s="135"/>
+      <c r="N107" s="131"/>
       <c r="O107" s="47" t="s">
         <v>85</v>
       </c>
@@ -25742,24 +25742,24 @@
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="136" t="s">
+      <c r="D119" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="136"/>
-      <c r="F119" s="136"/>
-      <c r="G119" s="136"/>
-      <c r="H119" s="136"/>
-      <c r="I119" s="136"/>
-      <c r="J119" s="136"/>
-      <c r="K119" s="136"/>
-      <c r="L119" s="136"/>
-      <c r="M119" s="136"/>
-      <c r="N119" s="136"/>
-      <c r="O119" s="136"/>
-      <c r="P119" s="136"/>
-      <c r="Q119" s="136"/>
-      <c r="R119" s="136"/>
-      <c r="S119" s="136"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="120"/>
+      <c r="G119" s="120"/>
+      <c r="H119" s="120"/>
+      <c r="I119" s="120"/>
+      <c r="J119" s="120"/>
+      <c r="K119" s="120"/>
+      <c r="L119" s="120"/>
+      <c r="M119" s="120"/>
+      <c r="N119" s="120"/>
+      <c r="O119" s="120"/>
+      <c r="P119" s="120"/>
+      <c r="Q119" s="120"/>
+      <c r="R119" s="120"/>
+      <c r="S119" s="120"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="21"/>
@@ -25798,45 +25798,45 @@
         <v>39</v>
       </c>
       <c r="C132" s="21"/>
-      <c r="D132" s="132" t="s">
+      <c r="D132" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E132" s="133"/>
-      <c r="F132" s="133"/>
-      <c r="G132" s="133"/>
-      <c r="H132" s="133"/>
-      <c r="I132" s="133"/>
-      <c r="J132" s="133"/>
-      <c r="K132" s="133"/>
-      <c r="L132" s="133"/>
-      <c r="M132" s="133"/>
-      <c r="N132" s="133"/>
-      <c r="O132" s="133"/>
-      <c r="P132" s="133"/>
-      <c r="Q132" s="133"/>
-      <c r="R132" s="133"/>
-      <c r="S132" s="134"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
+      <c r="J132" s="122"/>
+      <c r="K132" s="122"/>
+      <c r="L132" s="122"/>
+      <c r="M132" s="122"/>
+      <c r="N132" s="122"/>
+      <c r="O132" s="122"/>
+      <c r="P132" s="122"/>
+      <c r="Q132" s="122"/>
+      <c r="R132" s="122"/>
+      <c r="S132" s="123"/>
     </row>
     <row r="133" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="34"/>
       <c r="C133" s="21"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="130"/>
-      <c r="F133" s="130"/>
-      <c r="G133" s="130"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="130"/>
-      <c r="L133" s="130"/>
-      <c r="M133" s="130"/>
-      <c r="N133" s="130"/>
-      <c r="O133" s="130"/>
-      <c r="P133" s="130"/>
-      <c r="Q133" s="130"/>
-      <c r="R133" s="130"/>
-      <c r="S133" s="131"/>
+      <c r="D133" s="124"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="125"/>
+      <c r="G133" s="125"/>
+      <c r="H133" s="125"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="125"/>
+      <c r="L133" s="125"/>
+      <c r="M133" s="125"/>
+      <c r="N133" s="125"/>
+      <c r="O133" s="125"/>
+      <c r="P133" s="125"/>
+      <c r="Q133" s="125"/>
+      <c r="R133" s="125"/>
+      <c r="S133" s="126"/>
     </row>
     <row r="134" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
@@ -25954,7 +25954,7 @@
       <c r="Q137" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="R137" s="135" t="s">
+      <c r="R137" s="132" t="s">
         <v>58</v>
       </c>
       <c r="S137" s="42"/>
@@ -25983,7 +25983,7 @@
       </c>
       <c r="P138" s="91"/>
       <c r="Q138" s="50"/>
-      <c r="R138" s="135"/>
+      <c r="R138" s="132"/>
       <c r="S138" s="42"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
@@ -26579,24 +26579,24 @@
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
-      <c r="D158" s="136" t="s">
+      <c r="D158" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="136"/>
-      <c r="F158" s="136"/>
-      <c r="G158" s="136"/>
-      <c r="H158" s="136"/>
-      <c r="I158" s="136"/>
-      <c r="J158" s="136"/>
-      <c r="K158" s="136"/>
-      <c r="L158" s="136"/>
-      <c r="M158" s="136"/>
-      <c r="N158" s="136"/>
-      <c r="O158" s="136"/>
-      <c r="P158" s="136"/>
-      <c r="Q158" s="136"/>
-      <c r="R158" s="136"/>
-      <c r="S158" s="136"/>
+      <c r="E158" s="120"/>
+      <c r="F158" s="120"/>
+      <c r="G158" s="120"/>
+      <c r="H158" s="120"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="120"/>
+      <c r="K158" s="120"/>
+      <c r="L158" s="120"/>
+      <c r="M158" s="120"/>
+      <c r="N158" s="120"/>
+      <c r="O158" s="120"/>
+      <c r="P158" s="120"/>
+      <c r="Q158" s="120"/>
+      <c r="R158" s="120"/>
+      <c r="S158" s="120"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="21"/>
@@ -26634,45 +26634,45 @@
         <v>39</v>
       </c>
       <c r="C171" s="21"/>
-      <c r="D171" s="132" t="s">
+      <c r="D171" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E171" s="133"/>
-      <c r="F171" s="133"/>
-      <c r="G171" s="133"/>
-      <c r="H171" s="133"/>
-      <c r="I171" s="133"/>
-      <c r="J171" s="133"/>
-      <c r="K171" s="133"/>
-      <c r="L171" s="133"/>
-      <c r="M171" s="133"/>
-      <c r="N171" s="133"/>
-      <c r="O171" s="133"/>
-      <c r="P171" s="133"/>
-      <c r="Q171" s="133"/>
-      <c r="R171" s="133"/>
-      <c r="S171" s="134"/>
+      <c r="E171" s="122"/>
+      <c r="F171" s="122"/>
+      <c r="G171" s="122"/>
+      <c r="H171" s="122"/>
+      <c r="I171" s="122"/>
+      <c r="J171" s="122"/>
+      <c r="K171" s="122"/>
+      <c r="L171" s="122"/>
+      <c r="M171" s="122"/>
+      <c r="N171" s="122"/>
+      <c r="O171" s="122"/>
+      <c r="P171" s="122"/>
+      <c r="Q171" s="122"/>
+      <c r="R171" s="122"/>
+      <c r="S171" s="123"/>
     </row>
     <row r="172" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="34"/>
       <c r="C172" s="21"/>
-      <c r="D172" s="129"/>
-      <c r="E172" s="130"/>
-      <c r="F172" s="130"/>
-      <c r="G172" s="130"/>
-      <c r="H172" s="130"/>
-      <c r="I172" s="130"/>
-      <c r="J172" s="130"/>
-      <c r="K172" s="130"/>
-      <c r="L172" s="130"/>
-      <c r="M172" s="130"/>
-      <c r="N172" s="130"/>
-      <c r="O172" s="130"/>
-      <c r="P172" s="130"/>
-      <c r="Q172" s="130"/>
-      <c r="R172" s="130"/>
-      <c r="S172" s="131"/>
+      <c r="D172" s="124"/>
+      <c r="E172" s="125"/>
+      <c r="F172" s="125"/>
+      <c r="G172" s="125"/>
+      <c r="H172" s="125"/>
+      <c r="I172" s="125"/>
+      <c r="J172" s="125"/>
+      <c r="K172" s="125"/>
+      <c r="L172" s="125"/>
+      <c r="M172" s="125"/>
+      <c r="N172" s="125"/>
+      <c r="O172" s="125"/>
+      <c r="P172" s="125"/>
+      <c r="Q172" s="125"/>
+      <c r="R172" s="125"/>
+      <c r="S172" s="126"/>
     </row>
     <row r="173" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
@@ -26769,12 +26769,12 @@
       <c r="J176" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="K176" s="120" t="s">
+      <c r="K176" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="L176" s="127"/>
-      <c r="M176" s="127"/>
-      <c r="N176" s="121"/>
+      <c r="L176" s="136"/>
+      <c r="M176" s="136"/>
+      <c r="N176" s="134"/>
       <c r="O176" s="56" t="s">
         <v>56</v>
       </c>
@@ -26784,7 +26784,7 @@
       <c r="Q176" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="R176" s="135" t="s">
+      <c r="R176" s="132" t="s">
         <v>58</v>
       </c>
       <c r="S176" s="42"/>
@@ -26802,16 +26802,16 @@
       <c r="H177" s="48"/>
       <c r="I177" s="48"/>
       <c r="J177" s="48"/>
-      <c r="K177" s="122"/>
-      <c r="L177" s="128"/>
-      <c r="M177" s="128"/>
-      <c r="N177" s="123"/>
+      <c r="K177" s="118"/>
+      <c r="L177" s="137"/>
+      <c r="M177" s="137"/>
+      <c r="N177" s="119"/>
       <c r="O177" s="49" t="s">
         <v>61</v>
       </c>
       <c r="P177" s="91"/>
       <c r="Q177" s="50"/>
-      <c r="R177" s="135"/>
+      <c r="R177" s="132"/>
       <c r="S177" s="42"/>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
@@ -26862,12 +26862,12 @@
       <c r="J179" s="47">
         <v>43445</v>
       </c>
-      <c r="K179" s="124" t="s">
+      <c r="K179" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L179" s="125"/>
-      <c r="M179" s="125"/>
-      <c r="N179" s="126"/>
+      <c r="L179" s="135"/>
+      <c r="M179" s="135"/>
+      <c r="N179" s="131"/>
       <c r="O179" s="57" t="s">
         <v>80</v>
       </c>
@@ -26903,12 +26903,12 @@
       <c r="J180" s="47">
         <v>766</v>
       </c>
-      <c r="K180" s="124" t="s">
+      <c r="K180" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L180" s="125"/>
-      <c r="M180" s="125"/>
-      <c r="N180" s="126"/>
+      <c r="L180" s="135"/>
+      <c r="M180" s="135"/>
+      <c r="N180" s="131"/>
       <c r="O180" s="57" t="s">
         <v>80</v>
       </c>
@@ -26944,12 +26944,12 @@
       <c r="J181" s="47">
         <v>8</v>
       </c>
-      <c r="K181" s="124" t="s">
+      <c r="K181" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L181" s="125"/>
-      <c r="M181" s="125"/>
-      <c r="N181" s="126"/>
+      <c r="L181" s="135"/>
+      <c r="M181" s="135"/>
+      <c r="N181" s="131"/>
       <c r="O181" s="47" t="s">
         <v>81</v>
       </c>
@@ -26987,12 +26987,12 @@
       <c r="J182" s="47">
         <v>786</v>
       </c>
-      <c r="K182" s="124" t="s">
+      <c r="K182" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L182" s="125"/>
-      <c r="M182" s="125"/>
-      <c r="N182" s="126"/>
+      <c r="L182" s="135"/>
+      <c r="M182" s="135"/>
+      <c r="N182" s="131"/>
       <c r="O182" s="47" t="s">
         <v>84</v>
       </c>
@@ -27028,12 +27028,12 @@
       <c r="J183" s="47">
         <v>8</v>
       </c>
-      <c r="K183" s="124" t="s">
+      <c r="K183" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L183" s="125"/>
-      <c r="M183" s="125"/>
-      <c r="N183" s="126"/>
+      <c r="L183" s="135"/>
+      <c r="M183" s="135"/>
+      <c r="N183" s="131"/>
       <c r="O183" s="47" t="s">
         <v>82</v>
       </c>
@@ -27069,12 +27069,12 @@
       <c r="J184" s="47">
         <v>6875</v>
       </c>
-      <c r="K184" s="124" t="s">
+      <c r="K184" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L184" s="125"/>
-      <c r="M184" s="125"/>
-      <c r="N184" s="126"/>
+      <c r="L184" s="135"/>
+      <c r="M184" s="135"/>
+      <c r="N184" s="131"/>
       <c r="O184" s="47" t="s">
         <v>83</v>
       </c>
@@ -27108,12 +27108,12 @@
       <c r="J185" s="47">
         <v>55675</v>
       </c>
-      <c r="K185" s="124" t="s">
+      <c r="K185" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L185" s="125"/>
-      <c r="M185" s="125"/>
-      <c r="N185" s="126"/>
+      <c r="L185" s="135"/>
+      <c r="M185" s="135"/>
+      <c r="N185" s="131"/>
       <c r="O185" s="47" t="s">
         <v>85</v>
       </c>
@@ -27365,24 +27365,24 @@
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
-      <c r="D197" s="136" t="s">
+      <c r="D197" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="136"/>
-      <c r="F197" s="136"/>
-      <c r="G197" s="136"/>
-      <c r="H197" s="136"/>
-      <c r="I197" s="136"/>
-      <c r="J197" s="136"/>
-      <c r="K197" s="136"/>
-      <c r="L197" s="136"/>
-      <c r="M197" s="136"/>
-      <c r="N197" s="136"/>
-      <c r="O197" s="136"/>
-      <c r="P197" s="136"/>
-      <c r="Q197" s="136"/>
-      <c r="R197" s="136"/>
-      <c r="S197" s="136"/>
+      <c r="E197" s="120"/>
+      <c r="F197" s="120"/>
+      <c r="G197" s="120"/>
+      <c r="H197" s="120"/>
+      <c r="I197" s="120"/>
+      <c r="J197" s="120"/>
+      <c r="K197" s="120"/>
+      <c r="L197" s="120"/>
+      <c r="M197" s="120"/>
+      <c r="N197" s="120"/>
+      <c r="O197" s="120"/>
+      <c r="P197" s="120"/>
+      <c r="Q197" s="120"/>
+      <c r="R197" s="120"/>
+      <c r="S197" s="120"/>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="21"/>
@@ -27420,45 +27420,45 @@
         <v>39</v>
       </c>
       <c r="C210" s="21"/>
-      <c r="D210" s="132" t="s">
+      <c r="D210" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E210" s="133"/>
-      <c r="F210" s="133"/>
-      <c r="G210" s="133"/>
-      <c r="H210" s="133"/>
-      <c r="I210" s="133"/>
-      <c r="J210" s="133"/>
-      <c r="K210" s="133"/>
-      <c r="L210" s="133"/>
-      <c r="M210" s="133"/>
-      <c r="N210" s="133"/>
-      <c r="O210" s="133"/>
-      <c r="P210" s="133"/>
-      <c r="Q210" s="133"/>
-      <c r="R210" s="133"/>
-      <c r="S210" s="134"/>
+      <c r="E210" s="122"/>
+      <c r="F210" s="122"/>
+      <c r="G210" s="122"/>
+      <c r="H210" s="122"/>
+      <c r="I210" s="122"/>
+      <c r="J210" s="122"/>
+      <c r="K210" s="122"/>
+      <c r="L210" s="122"/>
+      <c r="M210" s="122"/>
+      <c r="N210" s="122"/>
+      <c r="O210" s="122"/>
+      <c r="P210" s="122"/>
+      <c r="Q210" s="122"/>
+      <c r="R210" s="122"/>
+      <c r="S210" s="123"/>
     </row>
     <row r="211" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="34"/>
       <c r="C211" s="21"/>
-      <c r="D211" s="129"/>
-      <c r="E211" s="130"/>
-      <c r="F211" s="130"/>
-      <c r="G211" s="130"/>
-      <c r="H211" s="130"/>
-      <c r="I211" s="130"/>
-      <c r="J211" s="130"/>
-      <c r="K211" s="130"/>
-      <c r="L211" s="130"/>
-      <c r="M211" s="130"/>
-      <c r="N211" s="130"/>
-      <c r="O211" s="130"/>
-      <c r="P211" s="130"/>
-      <c r="Q211" s="130"/>
-      <c r="R211" s="130"/>
-      <c r="S211" s="131"/>
+      <c r="D211" s="124"/>
+      <c r="E211" s="125"/>
+      <c r="F211" s="125"/>
+      <c r="G211" s="125"/>
+      <c r="H211" s="125"/>
+      <c r="I211" s="125"/>
+      <c r="J211" s="125"/>
+      <c r="K211" s="125"/>
+      <c r="L211" s="125"/>
+      <c r="M211" s="125"/>
+      <c r="N211" s="125"/>
+      <c r="O211" s="125"/>
+      <c r="P211" s="125"/>
+      <c r="Q211" s="125"/>
+      <c r="R211" s="125"/>
+      <c r="S211" s="126"/>
     </row>
     <row r="212" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
@@ -27487,10 +27487,10 @@
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
       <c r="D213" s="38"/>
-      <c r="E213" s="137" t="s">
+      <c r="E213" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="F213" s="138"/>
+      <c r="F213" s="129"/>
       <c r="G213" s="39"/>
       <c r="H213" s="39"/>
       <c r="I213" s="39"/>
@@ -27543,32 +27543,32 @@
       <c r="F215" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G215" s="120" t="s">
+      <c r="G215" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="H215" s="121"/>
+      <c r="H215" s="134"/>
       <c r="I215" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="J215" s="120" t="s">
+      <c r="J215" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="K215" s="121"/>
+      <c r="K215" s="134"/>
       <c r="L215" s="56"/>
       <c r="M215" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="N215" s="120" t="s">
+      <c r="N215" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="O215" s="121" t="s">
+      <c r="O215" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="P215" s="120" t="s">
+      <c r="P215" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="Q215" s="121"/>
-      <c r="R215" s="135" t="s">
+      <c r="Q215" s="134"/>
+      <c r="R215" s="132" t="s">
         <v>58</v>
       </c>
       <c r="S215" s="42"/>
@@ -27582,18 +27582,18 @@
       <c r="D216" s="41"/>
       <c r="E216" s="48"/>
       <c r="F216" s="48"/>
-      <c r="G216" s="122"/>
-      <c r="H216" s="123"/>
+      <c r="G216" s="118"/>
+      <c r="H216" s="119"/>
       <c r="I216" s="48"/>
-      <c r="J216" s="122"/>
-      <c r="K216" s="123"/>
+      <c r="J216" s="118"/>
+      <c r="K216" s="119"/>
       <c r="L216" s="48"/>
       <c r="M216" s="48"/>
-      <c r="N216" s="122"/>
-      <c r="O216" s="123"/>
-      <c r="P216" s="122"/>
-      <c r="Q216" s="123"/>
-      <c r="R216" s="135"/>
+      <c r="N216" s="118"/>
+      <c r="O216" s="119"/>
+      <c r="P216" s="118"/>
+      <c r="Q216" s="119"/>
+      <c r="R216" s="132"/>
       <c r="S216" s="42"/>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.2">
@@ -27612,8 +27612,8 @@
       <c r="K217" s="52"/>
       <c r="L217" s="52"/>
       <c r="M217" s="52"/>
-      <c r="N217" s="120"/>
-      <c r="O217" s="121"/>
+      <c r="N217" s="133"/>
+      <c r="O217" s="134"/>
       <c r="P217" s="52"/>
       <c r="Q217" s="52"/>
       <c r="R217" s="53"/>
@@ -27632,31 +27632,31 @@
       <c r="F218" s="47">
         <v>123</v>
       </c>
-      <c r="G218" s="124" t="s">
+      <c r="G218" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H218" s="126"/>
+      <c r="H218" s="131"/>
       <c r="I218" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J218" s="118" t="s">
+      <c r="J218" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="K218" s="119"/>
+      <c r="K218" s="139"/>
       <c r="L218" s="47"/>
       <c r="M218" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="N218" s="118" t="s">
+      <c r="N218" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="O218" s="119" t="s">
+      <c r="O218" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="P218" s="118" t="s">
+      <c r="P218" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="Q218" s="119"/>
+      <c r="Q218" s="139"/>
       <c r="R218"/>
       <c r="S218" s="42"/>
     </row>
@@ -27673,35 +27673,35 @@
       <c r="F219" s="47">
         <v>123</v>
       </c>
-      <c r="G219" s="124" t="s">
+      <c r="G219" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H219" s="126" t="s">
+      <c r="H219" s="131" t="s">
         <v>89</v>
       </c>
       <c r="I219" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J219" s="118" t="s">
+      <c r="J219" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="K219" s="119" t="s">
+      <c r="K219" s="139" t="s">
         <v>107</v>
       </c>
       <c r="L219" s="47"/>
       <c r="M219" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="N219" s="118" t="s">
+      <c r="N219" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="O219" s="119" t="s">
+      <c r="O219" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="P219" s="118" t="s">
+      <c r="P219" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="Q219" s="119" t="s">
+      <c r="Q219" s="139" t="s">
         <v>86</v>
       </c>
       <c r="R219" s="47"/>
@@ -27718,35 +27718,35 @@
       <c r="F220" s="47">
         <v>123</v>
       </c>
-      <c r="G220" s="124" t="s">
+      <c r="G220" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H220" s="126" t="s">
+      <c r="H220" s="131" t="s">
         <v>89</v>
       </c>
       <c r="I220" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J220" s="118" t="s">
+      <c r="J220" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="K220" s="119" t="s">
+      <c r="K220" s="139" t="s">
         <v>108</v>
       </c>
       <c r="L220" s="47"/>
       <c r="M220" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="N220" s="118" t="s">
+      <c r="N220" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="O220" s="119" t="s">
+      <c r="O220" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="P220" s="118" t="s">
+      <c r="P220" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="Q220" s="119" t="s">
+      <c r="Q220" s="139" t="s">
         <v>86</v>
       </c>
       <c r="R220" s="47"/>
@@ -27765,35 +27765,35 @@
       <c r="F221" s="47">
         <v>123</v>
       </c>
-      <c r="G221" s="124" t="s">
+      <c r="G221" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H221" s="126" t="s">
+      <c r="H221" s="131" t="s">
         <v>89</v>
       </c>
       <c r="I221" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J221" s="118" t="s">
+      <c r="J221" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="K221" s="119" t="s">
+      <c r="K221" s="139" t="s">
         <v>109</v>
       </c>
       <c r="L221" s="47"/>
       <c r="M221" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="N221" s="118" t="s">
+      <c r="N221" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="O221" s="119" t="s">
+      <c r="O221" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="P221" s="118" t="s">
+      <c r="P221" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="Q221" s="119" t="s">
+      <c r="Q221" s="139" t="s">
         <v>86</v>
       </c>
       <c r="R221" s="47"/>
@@ -27812,35 +27812,35 @@
       <c r="F222" s="47">
         <v>123</v>
       </c>
-      <c r="G222" s="124" t="s">
+      <c r="G222" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H222" s="126" t="s">
+      <c r="H222" s="131" t="s">
         <v>89</v>
       </c>
       <c r="I222" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J222" s="118" t="s">
+      <c r="J222" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="K222" s="119" t="s">
+      <c r="K222" s="139" t="s">
         <v>77</v>
       </c>
       <c r="L222" s="47"/>
       <c r="M222" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="N222" s="118" t="s">
+      <c r="N222" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="O222" s="119" t="s">
+      <c r="O222" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="P222" s="118" t="s">
+      <c r="P222" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="Q222" s="119" t="s">
+      <c r="Q222" s="139" t="s">
         <v>86</v>
       </c>
       <c r="R222" s="47"/>
@@ -27859,35 +27859,35 @@
       <c r="F223" s="47">
         <v>123</v>
       </c>
-      <c r="G223" s="124" t="s">
+      <c r="G223" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H223" s="126" t="s">
+      <c r="H223" s="131" t="s">
         <v>89</v>
       </c>
       <c r="I223" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J223" s="118" t="s">
+      <c r="J223" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="K223" s="119" t="s">
+      <c r="K223" s="139" t="s">
         <v>78</v>
       </c>
       <c r="L223" s="47"/>
       <c r="M223" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="N223" s="118" t="s">
+      <c r="N223" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="O223" s="119" t="s">
+      <c r="O223" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="P223" s="118" t="s">
+      <c r="P223" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="Q223" s="119" t="s">
+      <c r="Q223" s="139" t="s">
         <v>86</v>
       </c>
       <c r="R223" s="47"/>
@@ -27904,35 +27904,35 @@
       <c r="F224" s="47">
         <v>123</v>
       </c>
-      <c r="G224" s="124" t="s">
+      <c r="G224" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H224" s="126" t="s">
+      <c r="H224" s="131" t="s">
         <v>89</v>
       </c>
       <c r="I224" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J224" s="118" t="s">
+      <c r="J224" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="K224" s="119" t="s">
+      <c r="K224" s="139" t="s">
         <v>107</v>
       </c>
       <c r="L224" s="47"/>
       <c r="M224" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="N224" s="118" t="s">
+      <c r="N224" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="O224" s="119" t="s">
+      <c r="O224" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="P224" s="118" t="s">
+      <c r="P224" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="Q224" s="119" t="s">
+      <c r="Q224" s="139" t="s">
         <v>86</v>
       </c>
       <c r="R224" s="47"/>
@@ -28179,24 +28179,24 @@
       <c r="A236" s="21"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
-      <c r="D236" s="136" t="s">
+      <c r="D236" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E236" s="136"/>
-      <c r="F236" s="136"/>
-      <c r="G236" s="136"/>
-      <c r="H236" s="136"/>
-      <c r="I236" s="136"/>
-      <c r="J236" s="136"/>
-      <c r="K236" s="136"/>
-      <c r="L236" s="136"/>
-      <c r="M236" s="136"/>
-      <c r="N236" s="136"/>
-      <c r="O236" s="136"/>
-      <c r="P236" s="136"/>
-      <c r="Q236" s="136"/>
-      <c r="R236" s="136"/>
-      <c r="S236" s="136"/>
+      <c r="E236" s="120"/>
+      <c r="F236" s="120"/>
+      <c r="G236" s="120"/>
+      <c r="H236" s="120"/>
+      <c r="I236" s="120"/>
+      <c r="J236" s="120"/>
+      <c r="K236" s="120"/>
+      <c r="L236" s="120"/>
+      <c r="M236" s="120"/>
+      <c r="N236" s="120"/>
+      <c r="O236" s="120"/>
+      <c r="P236" s="120"/>
+      <c r="Q236" s="120"/>
+      <c r="R236" s="120"/>
+      <c r="S236" s="120"/>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="21"/>
@@ -28232,45 +28232,45 @@
         <v>39</v>
       </c>
       <c r="C250" s="21"/>
-      <c r="D250" s="132" t="s">
+      <c r="D250" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E250" s="133"/>
-      <c r="F250" s="133"/>
-      <c r="G250" s="133"/>
-      <c r="H250" s="133"/>
-      <c r="I250" s="133"/>
-      <c r="J250" s="133"/>
-      <c r="K250" s="133"/>
-      <c r="L250" s="133"/>
-      <c r="M250" s="133"/>
-      <c r="N250" s="133"/>
-      <c r="O250" s="133"/>
-      <c r="P250" s="133"/>
-      <c r="Q250" s="133"/>
-      <c r="R250" s="133"/>
-      <c r="S250" s="134"/>
+      <c r="E250" s="122"/>
+      <c r="F250" s="122"/>
+      <c r="G250" s="122"/>
+      <c r="H250" s="122"/>
+      <c r="I250" s="122"/>
+      <c r="J250" s="122"/>
+      <c r="K250" s="122"/>
+      <c r="L250" s="122"/>
+      <c r="M250" s="122"/>
+      <c r="N250" s="122"/>
+      <c r="O250" s="122"/>
+      <c r="P250" s="122"/>
+      <c r="Q250" s="122"/>
+      <c r="R250" s="122"/>
+      <c r="S250" s="123"/>
     </row>
     <row r="251" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="21"/>
       <c r="B251" s="34"/>
       <c r="C251" s="21"/>
-      <c r="D251" s="129"/>
-      <c r="E251" s="130"/>
-      <c r="F251" s="130"/>
-      <c r="G251" s="130"/>
-      <c r="H251" s="130"/>
-      <c r="I251" s="130"/>
-      <c r="J251" s="130"/>
-      <c r="K251" s="130"/>
-      <c r="L251" s="130"/>
-      <c r="M251" s="130"/>
-      <c r="N251" s="130"/>
-      <c r="O251" s="130"/>
-      <c r="P251" s="130"/>
-      <c r="Q251" s="130"/>
-      <c r="R251" s="130"/>
-      <c r="S251" s="131"/>
+      <c r="D251" s="124"/>
+      <c r="E251" s="125"/>
+      <c r="F251" s="125"/>
+      <c r="G251" s="125"/>
+      <c r="H251" s="125"/>
+      <c r="I251" s="125"/>
+      <c r="J251" s="125"/>
+      <c r="K251" s="125"/>
+      <c r="L251" s="125"/>
+      <c r="M251" s="125"/>
+      <c r="N251" s="125"/>
+      <c r="O251" s="125"/>
+      <c r="P251" s="125"/>
+      <c r="Q251" s="125"/>
+      <c r="R251" s="125"/>
+      <c r="S251" s="126"/>
     </row>
     <row r="252" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="21"/>
@@ -28300,10 +28300,10 @@
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
       <c r="D253" s="38"/>
-      <c r="E253" s="137" t="s">
+      <c r="E253" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="F253" s="138"/>
+      <c r="F253" s="129"/>
       <c r="G253" s="39"/>
       <c r="H253" s="39"/>
       <c r="I253" s="39"/>
@@ -28351,8 +28351,8 @@
       <c r="G255" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="H255" s="122"/>
-      <c r="I255" s="123"/>
+      <c r="H255" s="118"/>
+      <c r="I255" s="119"/>
       <c r="J255" s="26"/>
       <c r="K255" s="26"/>
       <c r="L255" s="26"/>
@@ -28376,8 +28376,8 @@
       <c r="G256" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H256" s="139"/>
-      <c r="I256" s="123"/>
+      <c r="H256" s="127"/>
+      <c r="I256" s="119"/>
       <c r="J256" s="64"/>
       <c r="K256" s="64"/>
       <c r="L256" s="64"/>
@@ -28401,8 +28401,8 @@
       <c r="G257" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H257" s="122"/>
-      <c r="I257" s="123"/>
+      <c r="H257" s="118"/>
+      <c r="I257" s="119"/>
       <c r="J257" s="64"/>
       <c r="O257" s="29"/>
       <c r="P257" s="29"/>
@@ -28422,8 +28422,8 @@
       <c r="G258" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="H258" s="122"/>
-      <c r="I258" s="123"/>
+      <c r="H258" s="118"/>
+      <c r="I258" s="119"/>
       <c r="J258" s="64"/>
       <c r="K258" s="64"/>
       <c r="L258" s="64"/>
@@ -28447,8 +28447,8 @@
       <c r="G259" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="H259" s="122"/>
-      <c r="I259" s="123"/>
+      <c r="H259" s="118"/>
+      <c r="I259" s="119"/>
       <c r="J259" s="64"/>
       <c r="K259" s="64"/>
       <c r="L259" s="64"/>
@@ -28822,24 +28822,24 @@
       <c r="A276" s="21"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
-      <c r="D276" s="136" t="s">
+      <c r="D276" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E276" s="136"/>
-      <c r="F276" s="136"/>
-      <c r="G276" s="136"/>
-      <c r="H276" s="136"/>
-      <c r="I276" s="136"/>
-      <c r="J276" s="136"/>
-      <c r="K276" s="136"/>
-      <c r="L276" s="136"/>
-      <c r="M276" s="136"/>
-      <c r="N276" s="136"/>
-      <c r="O276" s="136"/>
-      <c r="P276" s="136"/>
-      <c r="Q276" s="136"/>
-      <c r="R276" s="136"/>
-      <c r="S276" s="136"/>
+      <c r="E276" s="120"/>
+      <c r="F276" s="120"/>
+      <c r="G276" s="120"/>
+      <c r="H276" s="120"/>
+      <c r="I276" s="120"/>
+      <c r="J276" s="120"/>
+      <c r="K276" s="120"/>
+      <c r="L276" s="120"/>
+      <c r="M276" s="120"/>
+      <c r="N276" s="120"/>
+      <c r="O276" s="120"/>
+      <c r="P276" s="120"/>
+      <c r="Q276" s="120"/>
+      <c r="R276" s="120"/>
+      <c r="S276" s="120"/>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" s="21"/>
@@ -28877,45 +28877,45 @@
         <v>39</v>
       </c>
       <c r="C288" s="21"/>
-      <c r="D288" s="132" t="s">
+      <c r="D288" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E288" s="133"/>
-      <c r="F288" s="133"/>
-      <c r="G288" s="133"/>
-      <c r="H288" s="133"/>
-      <c r="I288" s="133"/>
-      <c r="J288" s="133"/>
-      <c r="K288" s="133"/>
-      <c r="L288" s="133"/>
-      <c r="M288" s="133"/>
-      <c r="N288" s="133"/>
-      <c r="O288" s="133"/>
-      <c r="P288" s="133"/>
-      <c r="Q288" s="133"/>
-      <c r="R288" s="133"/>
-      <c r="S288" s="134"/>
+      <c r="E288" s="122"/>
+      <c r="F288" s="122"/>
+      <c r="G288" s="122"/>
+      <c r="H288" s="122"/>
+      <c r="I288" s="122"/>
+      <c r="J288" s="122"/>
+      <c r="K288" s="122"/>
+      <c r="L288" s="122"/>
+      <c r="M288" s="122"/>
+      <c r="N288" s="122"/>
+      <c r="O288" s="122"/>
+      <c r="P288" s="122"/>
+      <c r="Q288" s="122"/>
+      <c r="R288" s="122"/>
+      <c r="S288" s="123"/>
     </row>
     <row r="289" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="21"/>
       <c r="B289" s="34"/>
       <c r="C289" s="21"/>
-      <c r="D289" s="129"/>
-      <c r="E289" s="130"/>
-      <c r="F289" s="130"/>
-      <c r="G289" s="130"/>
-      <c r="H289" s="130"/>
-      <c r="I289" s="130"/>
-      <c r="J289" s="130"/>
-      <c r="K289" s="130"/>
-      <c r="L289" s="130"/>
-      <c r="M289" s="130"/>
-      <c r="N289" s="130"/>
-      <c r="O289" s="130"/>
-      <c r="P289" s="130"/>
-      <c r="Q289" s="130"/>
-      <c r="R289" s="130"/>
-      <c r="S289" s="131"/>
+      <c r="D289" s="124"/>
+      <c r="E289" s="125"/>
+      <c r="F289" s="125"/>
+      <c r="G289" s="125"/>
+      <c r="H289" s="125"/>
+      <c r="I289" s="125"/>
+      <c r="J289" s="125"/>
+      <c r="K289" s="125"/>
+      <c r="L289" s="125"/>
+      <c r="M289" s="125"/>
+      <c r="N289" s="125"/>
+      <c r="O289" s="125"/>
+      <c r="P289" s="125"/>
+      <c r="Q289" s="125"/>
+      <c r="R289" s="125"/>
+      <c r="S289" s="126"/>
     </row>
     <row r="290" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="21"/>
@@ -29019,10 +29019,10 @@
       <c r="G294" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H294" s="122">
+      <c r="H294" s="118">
         <v>124</v>
       </c>
-      <c r="I294" s="123"/>
+      <c r="I294" s="119"/>
       <c r="J294" s="64"/>
       <c r="K294" s="64"/>
       <c r="L294" s="64"/>
@@ -29046,10 +29046,10 @@
       <c r="G295" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="H295" s="139" t="s">
+      <c r="H295" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="I295" s="123"/>
+      <c r="I295" s="119"/>
       <c r="J295" s="64"/>
       <c r="K295" s="64"/>
       <c r="L295" s="64"/>
@@ -29073,8 +29073,8 @@
       <c r="G296" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="H296" s="122"/>
-      <c r="I296" s="123"/>
+      <c r="H296" s="118"/>
+      <c r="I296" s="119"/>
       <c r="J296" s="64"/>
       <c r="K296" s="67" t="s">
         <v>135</v>
@@ -29100,10 +29100,10 @@
       <c r="G297" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="H297" s="122" t="s">
+      <c r="H297" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="I297" s="123"/>
+      <c r="I297" s="119"/>
       <c r="J297" s="64"/>
       <c r="K297" s="64"/>
       <c r="L297" s="64"/>
@@ -29125,10 +29125,10 @@
       <c r="G298" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="H298" s="122" t="s">
+      <c r="H298" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="I298" s="123"/>
+      <c r="I298" s="119"/>
       <c r="J298" s="64"/>
       <c r="K298" s="64"/>
       <c r="L298" s="64"/>
@@ -29483,24 +29483,24 @@
       <c r="A314" s="21"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
-      <c r="D314" s="136" t="s">
+      <c r="D314" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E314" s="136"/>
-      <c r="F314" s="136"/>
-      <c r="G314" s="136"/>
-      <c r="H314" s="136"/>
-      <c r="I314" s="136"/>
-      <c r="J314" s="136"/>
-      <c r="K314" s="136"/>
-      <c r="L314" s="136"/>
-      <c r="M314" s="136"/>
-      <c r="N314" s="136"/>
-      <c r="O314" s="136"/>
-      <c r="P314" s="136"/>
-      <c r="Q314" s="136"/>
-      <c r="R314" s="136"/>
-      <c r="S314" s="136"/>
+      <c r="E314" s="120"/>
+      <c r="F314" s="120"/>
+      <c r="G314" s="120"/>
+      <c r="H314" s="120"/>
+      <c r="I314" s="120"/>
+      <c r="J314" s="120"/>
+      <c r="K314" s="120"/>
+      <c r="L314" s="120"/>
+      <c r="M314" s="120"/>
+      <c r="N314" s="120"/>
+      <c r="O314" s="120"/>
+      <c r="P314" s="120"/>
+      <c r="Q314" s="120"/>
+      <c r="R314" s="120"/>
+      <c r="S314" s="120"/>
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="21"/>
@@ -29525,27 +29525,63 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H296:I296"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="D314:S314"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="D288:S288"/>
-    <mergeCell ref="D289:S289"/>
-    <mergeCell ref="H294:I294"/>
-    <mergeCell ref="H295:I295"/>
-    <mergeCell ref="D276:S276"/>
-    <mergeCell ref="D251:S251"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="P224:Q224"/>
+    <mergeCell ref="N215:O215"/>
+    <mergeCell ref="N217:O217"/>
+    <mergeCell ref="N216:O216"/>
+    <mergeCell ref="N218:O218"/>
+    <mergeCell ref="N219:O219"/>
+    <mergeCell ref="N220:O220"/>
+    <mergeCell ref="N221:O221"/>
+    <mergeCell ref="N222:O222"/>
+    <mergeCell ref="N223:O223"/>
+    <mergeCell ref="N224:O224"/>
+    <mergeCell ref="P219:Q219"/>
+    <mergeCell ref="P220:Q220"/>
+    <mergeCell ref="P221:Q221"/>
+    <mergeCell ref="P222:Q222"/>
+    <mergeCell ref="P223:Q223"/>
+    <mergeCell ref="K184:N184"/>
+    <mergeCell ref="K185:N185"/>
+    <mergeCell ref="P215:Q215"/>
+    <mergeCell ref="P216:Q216"/>
+    <mergeCell ref="P218:Q218"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="K176:N176"/>
+    <mergeCell ref="K177:N177"/>
+    <mergeCell ref="K179:N179"/>
+    <mergeCell ref="D172:S172"/>
+    <mergeCell ref="D132:S132"/>
+    <mergeCell ref="D133:S133"/>
+    <mergeCell ref="R137:R138"/>
+    <mergeCell ref="D158:S158"/>
+    <mergeCell ref="D171:S171"/>
+    <mergeCell ref="D52:S52"/>
+    <mergeCell ref="D53:S53"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="D37:S37"/>
+    <mergeCell ref="D78:S78"/>
+    <mergeCell ref="D93:S93"/>
+    <mergeCell ref="D94:S94"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="D119:S119"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="K107:N107"/>
     <mergeCell ref="D250:S250"/>
     <mergeCell ref="R176:R177"/>
     <mergeCell ref="D197:S197"/>
@@ -29562,63 +29598,27 @@
     <mergeCell ref="K181:N181"/>
     <mergeCell ref="K182:N182"/>
     <mergeCell ref="K183:N183"/>
-    <mergeCell ref="D93:S93"/>
-    <mergeCell ref="D94:S94"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="D119:S119"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="K106:N106"/>
-    <mergeCell ref="K107:N107"/>
-    <mergeCell ref="D52:S52"/>
-    <mergeCell ref="D53:S53"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="D37:S37"/>
-    <mergeCell ref="D78:S78"/>
-    <mergeCell ref="K176:N176"/>
-    <mergeCell ref="K177:N177"/>
-    <mergeCell ref="K179:N179"/>
-    <mergeCell ref="D172:S172"/>
-    <mergeCell ref="D132:S132"/>
-    <mergeCell ref="D133:S133"/>
-    <mergeCell ref="R137:R138"/>
-    <mergeCell ref="D158:S158"/>
-    <mergeCell ref="D171:S171"/>
-    <mergeCell ref="K184:N184"/>
-    <mergeCell ref="K185:N185"/>
-    <mergeCell ref="P215:Q215"/>
-    <mergeCell ref="P216:Q216"/>
-    <mergeCell ref="P218:Q218"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="P224:Q224"/>
-    <mergeCell ref="N215:O215"/>
-    <mergeCell ref="N217:O217"/>
-    <mergeCell ref="N216:O216"/>
-    <mergeCell ref="N218:O218"/>
-    <mergeCell ref="N219:O219"/>
-    <mergeCell ref="N220:O220"/>
-    <mergeCell ref="N221:O221"/>
-    <mergeCell ref="N222:O222"/>
-    <mergeCell ref="N223:O223"/>
-    <mergeCell ref="N224:O224"/>
-    <mergeCell ref="P219:Q219"/>
-    <mergeCell ref="P220:Q220"/>
-    <mergeCell ref="P221:Q221"/>
-    <mergeCell ref="P222:Q222"/>
-    <mergeCell ref="P223:Q223"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="D251:S251"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="H296:I296"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="D314:S314"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="D288:S288"/>
+    <mergeCell ref="D289:S289"/>
+    <mergeCell ref="H294:I294"/>
+    <mergeCell ref="H295:I295"/>
+    <mergeCell ref="D276:S276"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
@@ -29645,7 +29645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2269DA48-B7FA-44D3-A5DF-5C8109E6ACCB}">
   <dimension ref="A1:R356"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H347" sqref="H347"/>
     </sheetView>
   </sheetViews>
@@ -30200,20 +30200,20 @@
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="152" t="s">
+      <c r="D37" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
       <c r="P37" s="24"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -30249,37 +30249,37 @@
         <v>39</v>
       </c>
       <c r="C52" s="21"/>
-      <c r="D52" s="132" t="s">
+      <c r="D52" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="134"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="123"/>
     </row>
     <row r="53" spans="1:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="34"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="131"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="125"/>
+      <c r="O53" s="126"/>
     </row>
     <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
@@ -30630,10 +30630,10 @@
       <c r="J67" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="K67" s="120" t="s">
+      <c r="K67" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="L67" s="121"/>
+      <c r="L67" s="134"/>
       <c r="M67" s="29"/>
       <c r="N67" s="29"/>
       <c r="O67" s="42"/>
@@ -30868,20 +30868,20 @@
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="136" t="s">
+      <c r="D78" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="136"/>
-      <c r="F78" s="136"/>
-      <c r="G78" s="136"/>
-      <c r="H78" s="136"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="136"/>
-      <c r="K78" s="136"/>
-      <c r="L78" s="136"/>
-      <c r="M78" s="136"/>
-      <c r="N78" s="136"/>
-      <c r="O78" s="136"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
@@ -30916,39 +30916,39 @@
         <v>39</v>
       </c>
       <c r="C93" s="21"/>
-      <c r="D93" s="132" t="s">
+      <c r="D93" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="133"/>
-      <c r="F93" s="133"/>
-      <c r="G93" s="133"/>
-      <c r="H93" s="133"/>
-      <c r="I93" s="133"/>
-      <c r="J93" s="133"/>
-      <c r="K93" s="133"/>
-      <c r="L93" s="133"/>
-      <c r="M93" s="133"/>
-      <c r="N93" s="133"/>
-      <c r="O93" s="134"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="122"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="122"/>
+      <c r="M93" s="122"/>
+      <c r="N93" s="122"/>
+      <c r="O93" s="123"/>
     </row>
     <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="34"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="129" t="s">
+      <c r="D94" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="130"/>
-      <c r="L94" s="130"/>
-      <c r="M94" s="130"/>
-      <c r="N94" s="130"/>
-      <c r="O94" s="131"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="125"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="125"/>
+      <c r="L94" s="125"/>
+      <c r="M94" s="125"/>
+      <c r="N94" s="125"/>
+      <c r="O94" s="126"/>
     </row>
     <row r="95" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
@@ -31056,10 +31056,10 @@
         <v>246</v>
       </c>
       <c r="J100" s="80"/>
-      <c r="K100" s="150" t="s">
+      <c r="K100" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="L100" s="150"/>
+      <c r="L100" s="145"/>
       <c r="M100" s="29"/>
       <c r="N100" s="30"/>
       <c r="O100" s="42"/>
@@ -31077,10 +31077,10 @@
       <c r="I101" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K101" s="150" t="s">
+      <c r="K101" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="L101" s="150"/>
+      <c r="L101" s="145"/>
       <c r="M101" s="29"/>
       <c r="N101" s="30"/>
       <c r="O101" s="42"/>
@@ -31099,10 +31099,10 @@
         <v>223</v>
       </c>
       <c r="J102" s="80"/>
-      <c r="K102" s="149" t="s">
+      <c r="K102" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="L102" s="151"/>
+      <c r="L102" s="143"/>
       <c r="M102" s="29"/>
       <c r="N102" s="30"/>
       <c r="O102" s="42"/>
@@ -31119,10 +31119,10 @@
         <v>204</v>
       </c>
       <c r="J103" s="82"/>
-      <c r="K103" s="144" t="s">
+      <c r="K103" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="L103" s="145"/>
+      <c r="L103" s="141"/>
       <c r="M103" s="29"/>
       <c r="N103" s="30"/>
       <c r="O103" s="42"/>
@@ -31141,10 +31141,10 @@
         <v>205</v>
       </c>
       <c r="J104" s="82"/>
-      <c r="K104" s="144" t="s">
+      <c r="K104" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="L104" s="145"/>
+      <c r="L104" s="141"/>
       <c r="M104" s="29"/>
       <c r="N104" s="30"/>
       <c r="O104" s="42"/>
@@ -31165,10 +31165,10 @@
       <c r="J105" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="K105" s="144" t="s">
+      <c r="K105" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="L105" s="145"/>
+      <c r="L105" s="141"/>
       <c r="M105" s="29"/>
       <c r="N105" s="30"/>
       <c r="O105" s="42"/>
@@ -31187,10 +31187,10 @@
         <v>207</v>
       </c>
       <c r="J106" s="82"/>
-      <c r="K106" s="144">
+      <c r="K106" s="140">
         <v>60</v>
       </c>
-      <c r="L106" s="145"/>
+      <c r="L106" s="141"/>
       <c r="M106" s="29"/>
       <c r="N106" s="30"/>
       <c r="O106" s="42"/>
@@ -31209,10 +31209,10 @@
         <v>208</v>
       </c>
       <c r="J107" s="82"/>
-      <c r="K107" s="144" t="s">
+      <c r="K107" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="L107" s="145"/>
+      <c r="L107" s="141"/>
       <c r="M107" s="29"/>
       <c r="N107" s="30"/>
       <c r="O107" s="42"/>
@@ -31229,10 +31229,10 @@
         <v>209</v>
       </c>
       <c r="J108" s="82"/>
-      <c r="K108" s="144" t="s">
+      <c r="K108" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="L108" s="145"/>
+      <c r="L108" s="141"/>
       <c r="M108" s="29"/>
       <c r="N108" s="30"/>
       <c r="O108" s="42"/>
@@ -31249,10 +31249,10 @@
         <v>210</v>
       </c>
       <c r="J109" s="82"/>
-      <c r="K109" s="144" t="s">
+      <c r="K109" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="L109" s="145"/>
+      <c r="L109" s="141"/>
       <c r="M109" s="29"/>
       <c r="N109" s="30"/>
       <c r="O109" s="42"/>
@@ -31269,10 +31269,10 @@
         <v>211</v>
       </c>
       <c r="J110" s="82"/>
-      <c r="K110" s="144" t="s">
+      <c r="K110" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="L110" s="145"/>
+      <c r="L110" s="141"/>
       <c r="M110" s="29"/>
       <c r="N110" s="30"/>
       <c r="O110" s="42"/>
@@ -31289,10 +31289,10 @@
         <v>212</v>
       </c>
       <c r="J111" s="82"/>
-      <c r="K111" s="144" t="s">
+      <c r="K111" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="L111" s="145"/>
+      <c r="L111" s="141"/>
       <c r="M111" s="29"/>
       <c r="N111" s="30"/>
       <c r="O111" s="42"/>
@@ -31309,10 +31309,10 @@
         <v>213</v>
       </c>
       <c r="J112" s="82"/>
-      <c r="K112" s="144" t="s">
+      <c r="K112" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="L112" s="145"/>
+      <c r="L112" s="141"/>
       <c r="M112" s="29"/>
       <c r="N112" s="30"/>
       <c r="O112" s="42"/>
@@ -31329,10 +31329,10 @@
         <v>214</v>
       </c>
       <c r="J113" s="82"/>
-      <c r="K113" s="144" t="s">
+      <c r="K113" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="L113" s="145"/>
+      <c r="L113" s="141"/>
       <c r="M113" s="29"/>
       <c r="N113" s="30"/>
       <c r="O113" s="42"/>
@@ -31435,20 +31435,20 @@
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="136" t="s">
+      <c r="D119" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="136"/>
-      <c r="F119" s="136"/>
-      <c r="G119" s="136"/>
-      <c r="H119" s="136"/>
-      <c r="I119" s="136"/>
-      <c r="J119" s="136"/>
-      <c r="K119" s="136"/>
-      <c r="L119" s="136"/>
-      <c r="M119" s="136"/>
-      <c r="N119" s="136"/>
-      <c r="O119" s="136"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="120"/>
+      <c r="G119" s="120"/>
+      <c r="H119" s="120"/>
+      <c r="I119" s="120"/>
+      <c r="J119" s="120"/>
+      <c r="K119" s="120"/>
+      <c r="L119" s="120"/>
+      <c r="M119" s="120"/>
+      <c r="N119" s="120"/>
+      <c r="O119" s="120"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="21"/>
@@ -31483,37 +31483,37 @@
         <v>39</v>
       </c>
       <c r="C132" s="21"/>
-      <c r="D132" s="132" t="s">
+      <c r="D132" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E132" s="133"/>
-      <c r="F132" s="133"/>
-      <c r="G132" s="133"/>
-      <c r="H132" s="133"/>
-      <c r="I132" s="133"/>
-      <c r="J132" s="133"/>
-      <c r="K132" s="133"/>
-      <c r="L132" s="133"/>
-      <c r="M132" s="133"/>
-      <c r="N132" s="133"/>
-      <c r="O132" s="134"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
+      <c r="J132" s="122"/>
+      <c r="K132" s="122"/>
+      <c r="L132" s="122"/>
+      <c r="M132" s="122"/>
+      <c r="N132" s="122"/>
+      <c r="O132" s="123"/>
     </row>
     <row r="133" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="34"/>
       <c r="C133" s="21"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="130"/>
-      <c r="F133" s="130"/>
-      <c r="G133" s="130"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="130"/>
-      <c r="L133" s="130"/>
-      <c r="M133" s="130"/>
-      <c r="N133" s="130"/>
-      <c r="O133" s="131"/>
+      <c r="D133" s="124"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="125"/>
+      <c r="G133" s="125"/>
+      <c r="H133" s="125"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="125"/>
+      <c r="L133" s="125"/>
+      <c r="M133" s="125"/>
+      <c r="N133" s="125"/>
+      <c r="O133" s="126"/>
     </row>
     <row r="134" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
@@ -31637,10 +31637,10 @@
       <c r="H140" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J140" s="144" t="s">
+      <c r="J140" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="K140" s="145"/>
+      <c r="K140" s="141"/>
       <c r="L140" s="87" t="s">
         <v>266</v>
       </c>
@@ -31662,10 +31662,10 @@
         <v>204</v>
       </c>
       <c r="I141" s="82"/>
-      <c r="J141" s="144" t="s">
+      <c r="J141" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K141" s="145"/>
+      <c r="K141" s="141"/>
       <c r="M141" s="29"/>
       <c r="N141" s="30"/>
       <c r="O141" s="42"/>
@@ -31681,10 +31681,10 @@
       <c r="H142" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J142" s="144" t="s">
+      <c r="J142" s="140" t="s">
         <v>252</v>
       </c>
-      <c r="K142" s="145"/>
+      <c r="K142" s="141"/>
       <c r="M142" s="29"/>
       <c r="N142" s="30"/>
       <c r="O142" s="42"/>
@@ -31702,10 +31702,10 @@
       <c r="H143" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J143" s="144" t="s">
+      <c r="J143" s="140" t="s">
         <v>254</v>
       </c>
-      <c r="K143" s="145"/>
+      <c r="K143" s="141"/>
       <c r="M143" s="29"/>
       <c r="N143" s="30"/>
       <c r="O143" s="42"/>
@@ -31723,10 +31723,10 @@
       <c r="H144" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J144" s="144" t="s">
+      <c r="J144" s="140" t="s">
         <v>256</v>
       </c>
-      <c r="K144" s="145"/>
+      <c r="K144" s="141"/>
       <c r="M144" s="29"/>
       <c r="N144" s="30"/>
       <c r="O144" s="42"/>
@@ -31744,10 +31744,10 @@
       <c r="H145" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J145" s="144" t="s">
+      <c r="J145" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="K145" s="145"/>
+      <c r="K145" s="141"/>
       <c r="M145" s="29"/>
       <c r="N145" s="30"/>
       <c r="O145" s="42"/>
@@ -31765,10 +31765,10 @@
       <c r="H146" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J146" s="149" t="s">
+      <c r="J146" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="K146" s="145"/>
+      <c r="K146" s="141"/>
       <c r="M146" s="29"/>
       <c r="N146" s="30"/>
       <c r="O146" s="42"/>
@@ -31784,10 +31784,10 @@
       <c r="H147" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J147" s="149" t="s">
+      <c r="J147" s="142" t="s">
         <v>262</v>
       </c>
-      <c r="K147" s="145"/>
+      <c r="K147" s="141"/>
       <c r="M147" s="29"/>
       <c r="N147" s="30"/>
       <c r="O147" s="42"/>
@@ -31944,20 +31944,20 @@
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
-      <c r="D158" s="136" t="s">
+      <c r="D158" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="136"/>
-      <c r="F158" s="136"/>
-      <c r="G158" s="136"/>
-      <c r="H158" s="136"/>
-      <c r="I158" s="136"/>
-      <c r="J158" s="136"/>
-      <c r="K158" s="136"/>
-      <c r="L158" s="136"/>
-      <c r="M158" s="136"/>
-      <c r="N158" s="136"/>
-      <c r="O158" s="136"/>
+      <c r="E158" s="120"/>
+      <c r="F158" s="120"/>
+      <c r="G158" s="120"/>
+      <c r="H158" s="120"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="120"/>
+      <c r="K158" s="120"/>
+      <c r="L158" s="120"/>
+      <c r="M158" s="120"/>
+      <c r="N158" s="120"/>
+      <c r="O158" s="120"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="21"/>
@@ -31991,37 +31991,37 @@
         <v>39</v>
       </c>
       <c r="C171" s="21"/>
-      <c r="D171" s="132" t="s">
+      <c r="D171" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E171" s="133"/>
-      <c r="F171" s="133"/>
-      <c r="G171" s="133"/>
-      <c r="H171" s="133"/>
-      <c r="I171" s="133"/>
-      <c r="J171" s="133"/>
-      <c r="K171" s="133"/>
-      <c r="L171" s="133"/>
-      <c r="M171" s="133"/>
-      <c r="N171" s="133"/>
-      <c r="O171" s="134"/>
+      <c r="E171" s="122"/>
+      <c r="F171" s="122"/>
+      <c r="G171" s="122"/>
+      <c r="H171" s="122"/>
+      <c r="I171" s="122"/>
+      <c r="J171" s="122"/>
+      <c r="K171" s="122"/>
+      <c r="L171" s="122"/>
+      <c r="M171" s="122"/>
+      <c r="N171" s="122"/>
+      <c r="O171" s="123"/>
     </row>
     <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="34"/>
       <c r="C172" s="21"/>
-      <c r="D172" s="129"/>
-      <c r="E172" s="130"/>
-      <c r="F172" s="130"/>
-      <c r="G172" s="130"/>
-      <c r="H172" s="130"/>
-      <c r="I172" s="130"/>
-      <c r="J172" s="130"/>
-      <c r="K172" s="130"/>
-      <c r="L172" s="130"/>
-      <c r="M172" s="130"/>
-      <c r="N172" s="130"/>
-      <c r="O172" s="131"/>
+      <c r="D172" s="124"/>
+      <c r="E172" s="125"/>
+      <c r="F172" s="125"/>
+      <c r="G172" s="125"/>
+      <c r="H172" s="125"/>
+      <c r="I172" s="125"/>
+      <c r="J172" s="125"/>
+      <c r="K172" s="125"/>
+      <c r="L172" s="125"/>
+      <c r="M172" s="125"/>
+      <c r="N172" s="125"/>
+      <c r="O172" s="126"/>
     </row>
     <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
@@ -32144,10 +32144,10 @@
       <c r="H179" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J179" s="144" t="s">
+      <c r="J179" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="K179" s="145"/>
+      <c r="K179" s="141"/>
       <c r="L179" s="87" t="s">
         <v>266</v>
       </c>
@@ -32169,10 +32169,10 @@
         <v>204</v>
       </c>
       <c r="I180" s="82"/>
-      <c r="J180" s="144" t="s">
+      <c r="J180" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K180" s="145"/>
+      <c r="K180" s="141"/>
       <c r="M180" s="29"/>
       <c r="N180" s="30"/>
       <c r="O180" s="42"/>
@@ -32188,10 +32188,10 @@
       <c r="H181" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J181" s="144" t="s">
+      <c r="J181" s="140" t="s">
         <v>267</v>
       </c>
-      <c r="K181" s="145"/>
+      <c r="K181" s="141"/>
       <c r="M181" s="29"/>
       <c r="N181" s="30"/>
       <c r="O181" s="42"/>
@@ -32209,10 +32209,10 @@
       <c r="H182" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J182" s="144" t="s">
+      <c r="J182" s="140" t="s">
         <v>269</v>
       </c>
-      <c r="K182" s="145"/>
+      <c r="K182" s="141"/>
       <c r="M182" s="29"/>
       <c r="N182" s="30"/>
       <c r="O182" s="42"/>
@@ -32230,10 +32230,10 @@
       <c r="H183" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J183" s="144" t="s">
+      <c r="J183" s="140" t="s">
         <v>271</v>
       </c>
-      <c r="K183" s="145"/>
+      <c r="K183" s="141"/>
       <c r="M183" s="29"/>
       <c r="N183" s="30"/>
       <c r="O183" s="42"/>
@@ -32251,10 +32251,10 @@
       <c r="H184" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J184" s="149" t="s">
+      <c r="J184" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="K184" s="151"/>
+      <c r="K184" s="143"/>
       <c r="M184" s="29"/>
       <c r="N184" s="30"/>
       <c r="O184" s="42"/>
@@ -32272,10 +32272,10 @@
       <c r="H185" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J185" s="149" t="s">
+      <c r="J185" s="142" t="s">
         <v>262</v>
       </c>
-      <c r="K185" s="145"/>
+      <c r="K185" s="141"/>
       <c r="M185" s="29"/>
       <c r="N185" s="30"/>
       <c r="O185" s="42"/>
@@ -32288,8 +32288,8 @@
       <c r="D186" s="41"/>
       <c r="E186" s="86"/>
       <c r="F186" s="68"/>
-      <c r="J186" s="149"/>
-      <c r="K186" s="145"/>
+      <c r="J186" s="142"/>
+      <c r="K186" s="141"/>
       <c r="M186" s="29"/>
       <c r="N186" s="30"/>
       <c r="O186" s="42"/>
@@ -32447,20 +32447,20 @@
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
-      <c r="D197" s="136" t="s">
+      <c r="D197" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="136"/>
-      <c r="F197" s="136"/>
-      <c r="G197" s="136"/>
-      <c r="H197" s="136"/>
-      <c r="I197" s="136"/>
-      <c r="J197" s="136"/>
-      <c r="K197" s="136"/>
-      <c r="L197" s="136"/>
-      <c r="M197" s="136"/>
-      <c r="N197" s="136"/>
-      <c r="O197" s="136"/>
+      <c r="E197" s="120"/>
+      <c r="F197" s="120"/>
+      <c r="G197" s="120"/>
+      <c r="H197" s="120"/>
+      <c r="I197" s="120"/>
+      <c r="J197" s="120"/>
+      <c r="K197" s="120"/>
+      <c r="L197" s="120"/>
+      <c r="M197" s="120"/>
+      <c r="N197" s="120"/>
+      <c r="O197" s="120"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="21"/>
@@ -32494,37 +32494,37 @@
         <v>39</v>
       </c>
       <c r="C210" s="21"/>
-      <c r="D210" s="132" t="s">
+      <c r="D210" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E210" s="133"/>
-      <c r="F210" s="133"/>
-      <c r="G210" s="133"/>
-      <c r="H210" s="133"/>
-      <c r="I210" s="133"/>
-      <c r="J210" s="133"/>
-      <c r="K210" s="133"/>
-      <c r="L210" s="133"/>
-      <c r="M210" s="133"/>
-      <c r="N210" s="133"/>
-      <c r="O210" s="134"/>
+      <c r="E210" s="122"/>
+      <c r="F210" s="122"/>
+      <c r="G210" s="122"/>
+      <c r="H210" s="122"/>
+      <c r="I210" s="122"/>
+      <c r="J210" s="122"/>
+      <c r="K210" s="122"/>
+      <c r="L210" s="122"/>
+      <c r="M210" s="122"/>
+      <c r="N210" s="122"/>
+      <c r="O210" s="123"/>
     </row>
     <row r="211" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="34"/>
       <c r="C211" s="21"/>
-      <c r="D211" s="129"/>
-      <c r="E211" s="130"/>
-      <c r="F211" s="130"/>
-      <c r="G211" s="130"/>
-      <c r="H211" s="130"/>
-      <c r="I211" s="130"/>
-      <c r="J211" s="130"/>
-      <c r="K211" s="130"/>
-      <c r="L211" s="130"/>
-      <c r="M211" s="130"/>
-      <c r="N211" s="130"/>
-      <c r="O211" s="131"/>
+      <c r="D211" s="124"/>
+      <c r="E211" s="125"/>
+      <c r="F211" s="125"/>
+      <c r="G211" s="125"/>
+      <c r="H211" s="125"/>
+      <c r="I211" s="125"/>
+      <c r="J211" s="125"/>
+      <c r="K211" s="125"/>
+      <c r="L211" s="125"/>
+      <c r="M211" s="125"/>
+      <c r="N211" s="125"/>
+      <c r="O211" s="126"/>
     </row>
     <row r="212" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
@@ -32630,8 +32630,8 @@
       <c r="D217" s="41"/>
       <c r="E217" s="86"/>
       <c r="I217" s="80"/>
-      <c r="J217" s="148"/>
-      <c r="K217" s="148"/>
+      <c r="J217" s="146"/>
+      <c r="K217" s="146"/>
       <c r="L217" s="29"/>
       <c r="M217" s="30"/>
       <c r="N217" s="30"/>
@@ -32650,10 +32650,10 @@
       <c r="H218" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J218" s="150" t="s">
+      <c r="J218" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="K218" s="150"/>
+      <c r="K218" s="145"/>
       <c r="L218" s="29"/>
       <c r="M218" s="30"/>
       <c r="N218" s="30"/>
@@ -32673,10 +32673,10 @@
         <v>223</v>
       </c>
       <c r="I219" s="80"/>
-      <c r="J219" s="149" t="s">
+      <c r="J219" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="K219" s="151"/>
+      <c r="K219" s="143"/>
       <c r="L219" s="29"/>
       <c r="M219" s="30"/>
       <c r="N219" s="30"/>
@@ -32694,10 +32694,10 @@
         <v>204</v>
       </c>
       <c r="I220" s="82"/>
-      <c r="J220" s="144" t="s">
+      <c r="J220" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K220" s="145"/>
+      <c r="K220" s="141"/>
       <c r="L220" s="29"/>
       <c r="M220" s="30"/>
       <c r="N220" s="30"/>
@@ -32717,10 +32717,10 @@
         <v>205</v>
       </c>
       <c r="I221" s="82"/>
-      <c r="J221" s="144" t="s">
+      <c r="J221" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="K221" s="145"/>
+      <c r="K221" s="141"/>
       <c r="L221" s="29"/>
       <c r="M221" s="30"/>
       <c r="N221" s="30"/>
@@ -32742,10 +32742,10 @@
       <c r="I222" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="J222" s="144" t="s">
+      <c r="J222" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="K222" s="145"/>
+      <c r="K222" s="141"/>
       <c r="L222" s="29"/>
       <c r="M222" s="30"/>
       <c r="N222" s="30"/>
@@ -32765,10 +32765,10 @@
         <v>207</v>
       </c>
       <c r="I223" s="82"/>
-      <c r="J223" s="144" t="s">
+      <c r="J223" s="140" t="s">
         <v>280</v>
       </c>
-      <c r="K223" s="145"/>
+      <c r="K223" s="141"/>
       <c r="L223" s="29"/>
       <c r="M223" s="30"/>
       <c r="N223" s="30"/>
@@ -32788,10 +32788,10 @@
         <v>208</v>
       </c>
       <c r="I224" s="82"/>
-      <c r="J224" s="144" t="s">
+      <c r="J224" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="K224" s="145"/>
+      <c r="K224" s="141"/>
       <c r="L224" s="29"/>
       <c r="M224" s="30"/>
       <c r="N224" s="30"/>
@@ -32809,10 +32809,10 @@
         <v>209</v>
       </c>
       <c r="I225" s="82"/>
-      <c r="J225" s="144" t="s">
+      <c r="J225" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="K225" s="145"/>
+      <c r="K225" s="141"/>
       <c r="L225" s="29"/>
       <c r="M225" s="30"/>
       <c r="N225" s="30"/>
@@ -32830,10 +32830,10 @@
         <v>210</v>
       </c>
       <c r="I226" s="82"/>
-      <c r="J226" s="144" t="s">
+      <c r="J226" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="K226" s="145"/>
+      <c r="K226" s="141"/>
       <c r="L226" s="29"/>
       <c r="M226" s="30"/>
       <c r="N226" s="30"/>
@@ -32851,10 +32851,10 @@
         <v>211</v>
       </c>
       <c r="I227" s="82"/>
-      <c r="J227" s="144" t="s">
+      <c r="J227" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="K227" s="145"/>
+      <c r="K227" s="141"/>
       <c r="L227" s="29"/>
       <c r="M227" s="30"/>
       <c r="N227" s="30"/>
@@ -32872,10 +32872,10 @@
         <v>212</v>
       </c>
       <c r="I228" s="82"/>
-      <c r="J228" s="144" t="s">
+      <c r="J228" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="K228" s="145"/>
+      <c r="K228" s="141"/>
       <c r="L228" s="29"/>
       <c r="M228" s="30"/>
       <c r="N228" s="30"/>
@@ -32893,10 +32893,10 @@
         <v>213</v>
       </c>
       <c r="I229" s="82"/>
-      <c r="J229" s="144" t="s">
+      <c r="J229" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="K229" s="145"/>
+      <c r="K229" s="141"/>
       <c r="L229" s="29"/>
       <c r="M229" s="30"/>
       <c r="N229" s="30"/>
@@ -32914,10 +32914,10 @@
         <v>214</v>
       </c>
       <c r="I230" s="82"/>
-      <c r="J230" s="144" t="s">
+      <c r="J230" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="K230" s="145"/>
+      <c r="K230" s="141"/>
       <c r="L230" s="29"/>
       <c r="M230" s="30"/>
       <c r="N230" s="30"/>
@@ -33023,20 +33023,20 @@
       <c r="A236" s="21"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
-      <c r="D236" s="136" t="s">
+      <c r="D236" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E236" s="136"/>
-      <c r="F236" s="136"/>
-      <c r="G236" s="136"/>
-      <c r="H236" s="136"/>
-      <c r="I236" s="136"/>
-      <c r="J236" s="136"/>
-      <c r="K236" s="136"/>
-      <c r="L236" s="136"/>
-      <c r="M236" s="136"/>
-      <c r="N236" s="136"/>
-      <c r="O236" s="136"/>
+      <c r="E236" s="120"/>
+      <c r="F236" s="120"/>
+      <c r="G236" s="120"/>
+      <c r="H236" s="120"/>
+      <c r="I236" s="120"/>
+      <c r="J236" s="120"/>
+      <c r="K236" s="120"/>
+      <c r="L236" s="120"/>
+      <c r="M236" s="120"/>
+      <c r="N236" s="120"/>
+      <c r="O236" s="120"/>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="21"/>
@@ -33070,38 +33070,38 @@
         <v>39</v>
       </c>
       <c r="C250" s="21"/>
-      <c r="D250" s="132" t="s">
+      <c r="D250" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E250" s="133"/>
-      <c r="F250" s="133"/>
-      <c r="G250" s="133"/>
-      <c r="H250" s="133"/>
-      <c r="I250" s="133"/>
-      <c r="J250" s="133"/>
-      <c r="K250" s="133"/>
-      <c r="L250" s="133"/>
-      <c r="M250" s="133"/>
-      <c r="N250" s="133"/>
-      <c r="O250" s="134"/>
+      <c r="E250" s="122"/>
+      <c r="F250" s="122"/>
+      <c r="G250" s="122"/>
+      <c r="H250" s="122"/>
+      <c r="I250" s="122"/>
+      <c r="J250" s="122"/>
+      <c r="K250" s="122"/>
+      <c r="L250" s="122"/>
+      <c r="M250" s="122"/>
+      <c r="N250" s="122"/>
+      <c r="O250" s="123"/>
       <c r="P250" s="92"/>
     </row>
     <row r="251" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="21"/>
       <c r="B251" s="34"/>
       <c r="C251" s="21"/>
-      <c r="D251" s="129"/>
-      <c r="E251" s="130"/>
-      <c r="F251" s="130"/>
-      <c r="G251" s="130"/>
-      <c r="H251" s="130"/>
-      <c r="I251" s="130"/>
-      <c r="J251" s="130"/>
-      <c r="K251" s="130"/>
-      <c r="L251" s="130"/>
-      <c r="M251" s="130"/>
-      <c r="N251" s="130"/>
-      <c r="O251" s="131"/>
+      <c r="D251" s="124"/>
+      <c r="E251" s="125"/>
+      <c r="F251" s="125"/>
+      <c r="G251" s="125"/>
+      <c r="H251" s="125"/>
+      <c r="I251" s="125"/>
+      <c r="J251" s="125"/>
+      <c r="K251" s="125"/>
+      <c r="L251" s="125"/>
+      <c r="M251" s="125"/>
+      <c r="N251" s="125"/>
+      <c r="O251" s="126"/>
       <c r="P251" s="93"/>
     </row>
     <row r="252" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -33145,10 +33145,10 @@
         <v>90</v>
       </c>
       <c r="P253" s="39"/>
-      <c r="Q253" s="146" t="s">
+      <c r="Q253" s="147" t="s">
         <v>199</v>
       </c>
-      <c r="R253" s="147"/>
+      <c r="R253" s="148"/>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" s="21"/>
@@ -33216,7 +33216,7 @@
       <c r="Q255" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="R255" s="135" t="s">
+      <c r="R255" s="132" t="s">
         <v>58</v>
       </c>
     </row>
@@ -33242,7 +33242,7 @@
       </c>
       <c r="P256" s="91"/>
       <c r="Q256" s="50"/>
-      <c r="R256" s="135"/>
+      <c r="R256" s="132"/>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" s="21"/>
@@ -33822,20 +33822,20 @@
       <c r="A276" s="21"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
-      <c r="D276" s="136" t="s">
+      <c r="D276" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E276" s="136"/>
-      <c r="F276" s="136"/>
-      <c r="G276" s="136"/>
-      <c r="H276" s="136"/>
-      <c r="I276" s="136"/>
-      <c r="J276" s="136"/>
-      <c r="K276" s="136"/>
-      <c r="L276" s="136"/>
-      <c r="M276" s="136"/>
-      <c r="N276" s="136"/>
-      <c r="O276" s="136"/>
+      <c r="E276" s="120"/>
+      <c r="F276" s="120"/>
+      <c r="G276" s="120"/>
+      <c r="H276" s="120"/>
+      <c r="I276" s="120"/>
+      <c r="J276" s="120"/>
+      <c r="K276" s="120"/>
+      <c r="L276" s="120"/>
+      <c r="M276" s="120"/>
+      <c r="N276" s="120"/>
+      <c r="O276" s="120"/>
       <c r="P276" s="46"/>
       <c r="Q276" s="46"/>
       <c r="R276" s="46"/>
@@ -33875,37 +33875,37 @@
         <v>39</v>
       </c>
       <c r="C288" s="21"/>
-      <c r="D288" s="132" t="s">
+      <c r="D288" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E288" s="133"/>
-      <c r="F288" s="133"/>
-      <c r="G288" s="133"/>
-      <c r="H288" s="133"/>
-      <c r="I288" s="133"/>
-      <c r="J288" s="133"/>
-      <c r="K288" s="133"/>
-      <c r="L288" s="133"/>
-      <c r="M288" s="133"/>
-      <c r="N288" s="133"/>
-      <c r="O288" s="134"/>
+      <c r="E288" s="122"/>
+      <c r="F288" s="122"/>
+      <c r="G288" s="122"/>
+      <c r="H288" s="122"/>
+      <c r="I288" s="122"/>
+      <c r="J288" s="122"/>
+      <c r="K288" s="122"/>
+      <c r="L288" s="122"/>
+      <c r="M288" s="122"/>
+      <c r="N288" s="122"/>
+      <c r="O288" s="123"/>
     </row>
     <row r="289" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="21"/>
       <c r="B289" s="34"/>
       <c r="C289" s="21"/>
-      <c r="D289" s="129"/>
-      <c r="E289" s="130"/>
-      <c r="F289" s="130"/>
-      <c r="G289" s="130"/>
-      <c r="H289" s="130"/>
-      <c r="I289" s="130"/>
-      <c r="J289" s="130"/>
-      <c r="K289" s="130"/>
-      <c r="L289" s="130"/>
-      <c r="M289" s="130"/>
-      <c r="N289" s="130"/>
-      <c r="O289" s="131"/>
+      <c r="D289" s="124"/>
+      <c r="E289" s="125"/>
+      <c r="F289" s="125"/>
+      <c r="G289" s="125"/>
+      <c r="H289" s="125"/>
+      <c r="I289" s="125"/>
+      <c r="J289" s="125"/>
+      <c r="K289" s="125"/>
+      <c r="L289" s="125"/>
+      <c r="M289" s="125"/>
+      <c r="N289" s="125"/>
+      <c r="O289" s="126"/>
     </row>
     <row r="290" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="21"/>
@@ -34000,10 +34000,10 @@
       <c r="K293" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="L293" s="120" t="s">
+      <c r="L293" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="M293" s="121"/>
+      <c r="M293" s="134"/>
       <c r="N293" s="56" t="s">
         <v>56</v>
       </c>
@@ -34016,7 +34016,7 @@
       <c r="Q293" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="R293" s="135" t="s">
+      <c r="R293" s="132" t="s">
         <v>58</v>
       </c>
     </row>
@@ -34034,10 +34034,10 @@
       <c r="I294" s="48"/>
       <c r="J294" s="48"/>
       <c r="K294" s="48"/>
-      <c r="L294" s="142" t="s">
+      <c r="L294" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="M294" s="143"/>
+      <c r="M294" s="152"/>
       <c r="N294" s="49" t="s">
         <v>61</v>
       </c>
@@ -34046,7 +34046,7 @@
       </c>
       <c r="P294" s="91"/>
       <c r="Q294" s="50"/>
-      <c r="R294" s="135"/>
+      <c r="R294" s="132"/>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" s="21"/>
@@ -34062,8 +34062,8 @@
       <c r="I295" s="52"/>
       <c r="J295" s="52"/>
       <c r="K295" s="52"/>
-      <c r="L295" s="140"/>
-      <c r="M295" s="141"/>
+      <c r="L295" s="149"/>
+      <c r="M295" s="150"/>
       <c r="N295" s="52"/>
       <c r="O295" s="52"/>
       <c r="P295" s="52"/>
@@ -34584,23 +34584,23 @@
       <c r="A314" s="21"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
-      <c r="D314" s="136" t="s">
+      <c r="D314" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E314" s="136"/>
-      <c r="F314" s="136"/>
-      <c r="G314" s="136"/>
-      <c r="H314" s="136"/>
-      <c r="I314" s="136"/>
-      <c r="J314" s="136"/>
-      <c r="K314" s="136"/>
-      <c r="L314" s="136"/>
-      <c r="M314" s="136"/>
-      <c r="N314" s="136"/>
-      <c r="O314" s="136"/>
-      <c r="P314" s="136"/>
-      <c r="Q314" s="136"/>
-      <c r="R314" s="136"/>
+      <c r="E314" s="120"/>
+      <c r="F314" s="120"/>
+      <c r="G314" s="120"/>
+      <c r="H314" s="120"/>
+      <c r="I314" s="120"/>
+      <c r="J314" s="120"/>
+      <c r="K314" s="120"/>
+      <c r="L314" s="120"/>
+      <c r="M314" s="120"/>
+      <c r="N314" s="120"/>
+      <c r="O314" s="120"/>
+      <c r="P314" s="120"/>
+      <c r="Q314" s="120"/>
+      <c r="R314" s="120"/>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315" s="21"/>
@@ -34643,37 +34643,37 @@
         <v>39</v>
       </c>
       <c r="C327" s="21"/>
-      <c r="D327" s="132" t="s">
+      <c r="D327" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E327" s="133"/>
-      <c r="F327" s="133"/>
-      <c r="G327" s="133"/>
-      <c r="H327" s="133"/>
-      <c r="I327" s="133"/>
-      <c r="J327" s="133"/>
-      <c r="K327" s="133"/>
-      <c r="L327" s="133"/>
-      <c r="M327" s="133"/>
-      <c r="N327" s="133"/>
-      <c r="O327" s="134"/>
+      <c r="E327" s="122"/>
+      <c r="F327" s="122"/>
+      <c r="G327" s="122"/>
+      <c r="H327" s="122"/>
+      <c r="I327" s="122"/>
+      <c r="J327" s="122"/>
+      <c r="K327" s="122"/>
+      <c r="L327" s="122"/>
+      <c r="M327" s="122"/>
+      <c r="N327" s="122"/>
+      <c r="O327" s="123"/>
     </row>
     <row r="328" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="21"/>
       <c r="B328" s="34"/>
       <c r="C328" s="21"/>
-      <c r="D328" s="129"/>
-      <c r="E328" s="130"/>
-      <c r="F328" s="130"/>
-      <c r="G328" s="130"/>
-      <c r="H328" s="130"/>
-      <c r="I328" s="130"/>
-      <c r="J328" s="130"/>
-      <c r="K328" s="130"/>
-      <c r="L328" s="130"/>
-      <c r="M328" s="130"/>
-      <c r="N328" s="130"/>
-      <c r="O328" s="131"/>
+      <c r="D328" s="124"/>
+      <c r="E328" s="125"/>
+      <c r="F328" s="125"/>
+      <c r="G328" s="125"/>
+      <c r="H328" s="125"/>
+      <c r="I328" s="125"/>
+      <c r="J328" s="125"/>
+      <c r="K328" s="125"/>
+      <c r="L328" s="125"/>
+      <c r="M328" s="125"/>
+      <c r="N328" s="125"/>
+      <c r="O328" s="126"/>
     </row>
     <row r="329" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="21"/>
@@ -34765,12 +34765,12 @@
       <c r="J332" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="K332" s="120" t="s">
+      <c r="K332" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="L332" s="127"/>
-      <c r="M332" s="127"/>
-      <c r="N332" s="121"/>
+      <c r="L332" s="136"/>
+      <c r="M332" s="136"/>
+      <c r="N332" s="134"/>
       <c r="O332" s="56" t="s">
         <v>281</v>
       </c>
@@ -34780,7 +34780,7 @@
       <c r="Q332" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="R332" s="135" t="s">
+      <c r="R332" s="132" t="s">
         <v>58</v>
       </c>
     </row>
@@ -34797,16 +34797,16 @@
       <c r="H333" s="48"/>
       <c r="I333" s="48"/>
       <c r="J333" s="48"/>
-      <c r="K333" s="122"/>
-      <c r="L333" s="128"/>
-      <c r="M333" s="128"/>
-      <c r="N333" s="123"/>
+      <c r="K333" s="118"/>
+      <c r="L333" s="137"/>
+      <c r="M333" s="137"/>
+      <c r="N333" s="119"/>
       <c r="O333" s="49" t="s">
         <v>61</v>
       </c>
       <c r="P333" s="91"/>
       <c r="Q333" s="50"/>
-      <c r="R333" s="135"/>
+      <c r="R333" s="132"/>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" s="21"/>
@@ -34821,10 +34821,10 @@
       <c r="H334" s="52"/>
       <c r="I334" s="52"/>
       <c r="J334" s="52"/>
-      <c r="K334" s="140"/>
-      <c r="L334" s="140"/>
-      <c r="M334" s="140"/>
-      <c r="N334" s="140"/>
+      <c r="K334" s="149"/>
+      <c r="L334" s="149"/>
+      <c r="M334" s="149"/>
+      <c r="N334" s="149"/>
       <c r="O334" s="52"/>
       <c r="P334" s="52"/>
       <c r="Q334" s="52"/>
@@ -34855,12 +34855,12 @@
       <c r="J335" s="47">
         <v>43445</v>
       </c>
-      <c r="K335" s="124" t="s">
+      <c r="K335" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L335" s="125"/>
-      <c r="M335" s="125"/>
-      <c r="N335" s="126"/>
+      <c r="L335" s="135"/>
+      <c r="M335" s="135"/>
+      <c r="N335" s="131"/>
       <c r="O335" s="95" t="s">
         <v>82</v>
       </c>
@@ -34895,12 +34895,12 @@
       <c r="J336" s="47">
         <v>766</v>
       </c>
-      <c r="K336" s="124" t="s">
+      <c r="K336" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L336" s="125"/>
-      <c r="M336" s="125"/>
-      <c r="N336" s="126"/>
+      <c r="L336" s="135"/>
+      <c r="M336" s="135"/>
+      <c r="N336" s="131"/>
       <c r="O336" s="96" t="s">
         <v>81</v>
       </c>
@@ -34935,12 +34935,12 @@
       <c r="J337" s="47">
         <v>8</v>
       </c>
-      <c r="K337" s="124" t="s">
+      <c r="K337" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L337" s="125"/>
-      <c r="M337" s="125"/>
-      <c r="N337" s="126"/>
+      <c r="L337" s="135"/>
+      <c r="M337" s="135"/>
+      <c r="N337" s="131"/>
       <c r="O337" s="96" t="s">
         <v>81</v>
       </c>
@@ -34977,12 +34977,12 @@
       <c r="J338" s="47">
         <v>786</v>
       </c>
-      <c r="K338" s="124" t="s">
+      <c r="K338" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L338" s="125"/>
-      <c r="M338" s="125"/>
-      <c r="N338" s="126"/>
+      <c r="L338" s="135"/>
+      <c r="M338" s="135"/>
+      <c r="N338" s="131"/>
       <c r="O338" s="95" t="s">
         <v>82</v>
       </c>
@@ -35017,12 +35017,12 @@
       <c r="J339" s="47">
         <v>8</v>
       </c>
-      <c r="K339" s="124" t="s">
+      <c r="K339" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L339" s="125"/>
-      <c r="M339" s="125"/>
-      <c r="N339" s="126"/>
+      <c r="L339" s="135"/>
+      <c r="M339" s="135"/>
+      <c r="N339" s="131"/>
       <c r="O339" s="95" t="s">
         <v>82</v>
       </c>
@@ -35057,12 +35057,12 @@
       <c r="J340" s="47">
         <v>6875</v>
       </c>
-      <c r="K340" s="124" t="s">
+      <c r="K340" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L340" s="125"/>
-      <c r="M340" s="125"/>
-      <c r="N340" s="126"/>
+      <c r="L340" s="135"/>
+      <c r="M340" s="135"/>
+      <c r="N340" s="131"/>
       <c r="O340" s="95" t="s">
         <v>82</v>
       </c>
@@ -35097,12 +35097,12 @@
       <c r="J341" s="47">
         <v>55675</v>
       </c>
-      <c r="K341" s="124" t="s">
+      <c r="K341" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L341" s="125"/>
-      <c r="M341" s="125"/>
-      <c r="N341" s="126"/>
+      <c r="L341" s="135"/>
+      <c r="M341" s="135"/>
+      <c r="N341" s="131"/>
       <c r="O341" s="96" t="s">
         <v>81</v>
       </c>
@@ -35316,23 +35316,23 @@
       <c r="A353" s="21"/>
       <c r="B353" s="21"/>
       <c r="C353" s="21"/>
-      <c r="D353" s="136" t="s">
+      <c r="D353" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E353" s="136"/>
-      <c r="F353" s="136"/>
-      <c r="G353" s="136"/>
-      <c r="H353" s="136"/>
-      <c r="I353" s="136"/>
-      <c r="J353" s="136"/>
-      <c r="K353" s="136"/>
-      <c r="L353" s="136"/>
-      <c r="M353" s="136"/>
-      <c r="N353" s="136"/>
-      <c r="O353" s="136"/>
-      <c r="P353" s="136"/>
-      <c r="Q353" s="136"/>
-      <c r="R353" s="136"/>
+      <c r="E353" s="120"/>
+      <c r="F353" s="120"/>
+      <c r="G353" s="120"/>
+      <c r="H353" s="120"/>
+      <c r="I353" s="120"/>
+      <c r="J353" s="120"/>
+      <c r="K353" s="120"/>
+      <c r="L353" s="120"/>
+      <c r="M353" s="120"/>
+      <c r="N353" s="120"/>
+      <c r="O353" s="120"/>
+      <c r="P353" s="120"/>
+      <c r="Q353" s="120"/>
+      <c r="R353" s="120"/>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A354" s="21"/>
@@ -35362,6 +35362,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="D328:O328"/>
+    <mergeCell ref="R332:R333"/>
+    <mergeCell ref="D353:O353"/>
+    <mergeCell ref="P353:R353"/>
+    <mergeCell ref="K332:N332"/>
+    <mergeCell ref="K333:N333"/>
+    <mergeCell ref="K335:N335"/>
+    <mergeCell ref="K336:N336"/>
+    <mergeCell ref="K337:N337"/>
+    <mergeCell ref="K338:N338"/>
+    <mergeCell ref="K339:N339"/>
+    <mergeCell ref="K340:N340"/>
+    <mergeCell ref="K341:N341"/>
+    <mergeCell ref="K334:N334"/>
+    <mergeCell ref="P314:R314"/>
+    <mergeCell ref="D327:O327"/>
+    <mergeCell ref="L293:M293"/>
+    <mergeCell ref="L295:M295"/>
+    <mergeCell ref="L294:M294"/>
+    <mergeCell ref="D314:O314"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="R255:R256"/>
+    <mergeCell ref="Q253:R253"/>
+    <mergeCell ref="R293:R294"/>
+    <mergeCell ref="D236:O236"/>
+    <mergeCell ref="D276:O276"/>
+    <mergeCell ref="D288:O288"/>
+    <mergeCell ref="D289:O289"/>
+    <mergeCell ref="D250:O250"/>
+    <mergeCell ref="D251:O251"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="D158:O158"/>
+    <mergeCell ref="D171:O171"/>
+    <mergeCell ref="D172:O172"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="D94:O94"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="D52:O52"/>
+    <mergeCell ref="D53:O53"/>
+    <mergeCell ref="D78:O78"/>
+    <mergeCell ref="D93:O93"/>
+    <mergeCell ref="D119:O119"/>
+    <mergeCell ref="D132:O132"/>
+    <mergeCell ref="D133:O133"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="K113:L113"/>
     <mergeCell ref="J140:K140"/>
     <mergeCell ref="J141:K141"/>
     <mergeCell ref="J142:K142"/>
@@ -35378,79 +35451,6 @@
     <mergeCell ref="J143:K143"/>
     <mergeCell ref="J144:K144"/>
     <mergeCell ref="J145:K145"/>
-    <mergeCell ref="D119:O119"/>
-    <mergeCell ref="D132:O132"/>
-    <mergeCell ref="D133:O133"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="D52:O52"/>
-    <mergeCell ref="D53:O53"/>
-    <mergeCell ref="D78:O78"/>
-    <mergeCell ref="D93:O93"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="D94:O94"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="D158:O158"/>
-    <mergeCell ref="D171:O171"/>
-    <mergeCell ref="D172:O172"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="R255:R256"/>
-    <mergeCell ref="Q253:R253"/>
-    <mergeCell ref="R293:R294"/>
-    <mergeCell ref="D236:O236"/>
-    <mergeCell ref="D276:O276"/>
-    <mergeCell ref="D288:O288"/>
-    <mergeCell ref="D289:O289"/>
-    <mergeCell ref="D250:O250"/>
-    <mergeCell ref="D251:O251"/>
-    <mergeCell ref="P314:R314"/>
-    <mergeCell ref="D327:O327"/>
-    <mergeCell ref="L293:M293"/>
-    <mergeCell ref="L295:M295"/>
-    <mergeCell ref="L294:M294"/>
-    <mergeCell ref="D314:O314"/>
-    <mergeCell ref="D328:O328"/>
-    <mergeCell ref="R332:R333"/>
-    <mergeCell ref="D353:O353"/>
-    <mergeCell ref="P353:R353"/>
-    <mergeCell ref="K332:N332"/>
-    <mergeCell ref="K333:N333"/>
-    <mergeCell ref="K335:N335"/>
-    <mergeCell ref="K336:N336"/>
-    <mergeCell ref="K337:N337"/>
-    <mergeCell ref="K338:N338"/>
-    <mergeCell ref="K339:N339"/>
-    <mergeCell ref="K340:N340"/>
-    <mergeCell ref="K341:N341"/>
-    <mergeCell ref="K334:N334"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K61:K67" r:id="rId1" display="123@vpbank.com.vn" xr:uid="{533B9E34-ADD4-4F24-B505-5680C3E58B95}"/>
@@ -36242,20 +36242,20 @@
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="152" t="s">
+      <c r="D37" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
       <c r="P37" s="24"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -36291,37 +36291,37 @@
         <v>39</v>
       </c>
       <c r="C52" s="21"/>
-      <c r="D52" s="132" t="s">
+      <c r="D52" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="134"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="123"/>
     </row>
     <row r="53" spans="1:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="34"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="131"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="125"/>
+      <c r="O53" s="126"/>
     </row>
     <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
@@ -36742,20 +36742,20 @@
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="136" t="s">
+      <c r="D78" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="136"/>
-      <c r="F78" s="136"/>
-      <c r="G78" s="136"/>
-      <c r="H78" s="136"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="136"/>
-      <c r="K78" s="136"/>
-      <c r="L78" s="136"/>
-      <c r="M78" s="136"/>
-      <c r="N78" s="136"/>
-      <c r="O78" s="136"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
@@ -36790,39 +36790,39 @@
         <v>39</v>
       </c>
       <c r="C93" s="21"/>
-      <c r="D93" s="132" t="s">
+      <c r="D93" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="133"/>
-      <c r="F93" s="133"/>
-      <c r="G93" s="133"/>
-      <c r="H93" s="133"/>
-      <c r="I93" s="133"/>
-      <c r="J93" s="133"/>
-      <c r="K93" s="133"/>
-      <c r="L93" s="133"/>
-      <c r="M93" s="133"/>
-      <c r="N93" s="133"/>
-      <c r="O93" s="134"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="122"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="122"/>
+      <c r="M93" s="122"/>
+      <c r="N93" s="122"/>
+      <c r="O93" s="123"/>
     </row>
     <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="34"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="129" t="s">
+      <c r="D94" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="130"/>
-      <c r="L94" s="130"/>
-      <c r="M94" s="130"/>
-      <c r="N94" s="130"/>
-      <c r="O94" s="131"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="125"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="125"/>
+      <c r="L94" s="125"/>
+      <c r="M94" s="125"/>
+      <c r="N94" s="125"/>
+      <c r="O94" s="126"/>
     </row>
     <row r="95" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
@@ -36930,10 +36930,10 @@
         <v>246</v>
       </c>
       <c r="J100" s="80"/>
-      <c r="K100" s="150" t="s">
+      <c r="K100" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="L100" s="150"/>
+      <c r="L100" s="145"/>
       <c r="M100" s="29"/>
       <c r="N100" s="30"/>
       <c r="O100" s="42"/>
@@ -36951,10 +36951,10 @@
       <c r="I101" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K101" s="150" t="s">
+      <c r="K101" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="L101" s="150"/>
+      <c r="L101" s="145"/>
       <c r="M101" s="29"/>
       <c r="N101" s="30"/>
       <c r="O101" s="42"/>
@@ -36973,10 +36973,10 @@
         <v>223</v>
       </c>
       <c r="J102" s="80"/>
-      <c r="K102" s="149" t="s">
+      <c r="K102" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="L102" s="151"/>
+      <c r="L102" s="143"/>
       <c r="M102" s="29"/>
       <c r="N102" s="30"/>
       <c r="O102" s="42"/>
@@ -36993,10 +36993,10 @@
         <v>204</v>
       </c>
       <c r="J103" s="82"/>
-      <c r="K103" s="144" t="s">
+      <c r="K103" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="L103" s="145"/>
+      <c r="L103" s="141"/>
       <c r="M103" s="29"/>
       <c r="N103" s="30"/>
       <c r="O103" s="42"/>
@@ -37013,10 +37013,10 @@
         <v>205</v>
       </c>
       <c r="J104" s="82"/>
-      <c r="K104" s="144" t="s">
+      <c r="K104" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="L104" s="145"/>
+      <c r="L104" s="141"/>
       <c r="M104" s="29"/>
       <c r="N104" s="30"/>
       <c r="O104" s="42"/>
@@ -37035,10 +37035,10 @@
       <c r="J105" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="K105" s="144" t="s">
+      <c r="K105" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="L105" s="145"/>
+      <c r="L105" s="141"/>
       <c r="M105" s="29"/>
       <c r="N105" s="30"/>
       <c r="O105" s="42"/>
@@ -37055,10 +37055,10 @@
         <v>207</v>
       </c>
       <c r="J106" s="82"/>
-      <c r="K106" s="144">
+      <c r="K106" s="140">
         <v>60</v>
       </c>
-      <c r="L106" s="145"/>
+      <c r="L106" s="141"/>
       <c r="M106" s="29" t="s">
         <v>303</v>
       </c>
@@ -37077,10 +37077,10 @@
         <v>208</v>
       </c>
       <c r="J107" s="82"/>
-      <c r="K107" s="144" t="s">
+      <c r="K107" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="L107" s="145"/>
+      <c r="L107" s="141"/>
       <c r="M107" s="29"/>
       <c r="N107" s="30"/>
       <c r="O107" s="42"/>
@@ -37097,10 +37097,10 @@
         <v>209</v>
       </c>
       <c r="J108" s="82"/>
-      <c r="K108" s="144" t="s">
+      <c r="K108" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="L108" s="145"/>
+      <c r="L108" s="141"/>
       <c r="M108" s="29" t="s">
         <v>302</v>
       </c>
@@ -37119,10 +37119,10 @@
         <v>210</v>
       </c>
       <c r="J109" s="82"/>
-      <c r="K109" s="144" t="s">
+      <c r="K109" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="L109" s="145"/>
+      <c r="L109" s="141"/>
       <c r="M109" s="29" t="s">
         <v>302</v>
       </c>
@@ -37141,10 +37141,10 @@
         <v>211</v>
       </c>
       <c r="J110" s="82"/>
-      <c r="K110" s="144" t="s">
+      <c r="K110" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="L110" s="145"/>
+      <c r="L110" s="141"/>
       <c r="M110" s="29" t="s">
         <v>301</v>
       </c>
@@ -37163,10 +37163,10 @@
         <v>212</v>
       </c>
       <c r="J111" s="82"/>
-      <c r="K111" s="144" t="s">
+      <c r="K111" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="L111" s="145"/>
+      <c r="L111" s="141"/>
       <c r="M111" s="29"/>
       <c r="N111" s="30"/>
       <c r="O111" s="42"/>
@@ -37183,10 +37183,10 @@
         <v>213</v>
       </c>
       <c r="J112" s="82"/>
-      <c r="K112" s="144" t="s">
+      <c r="K112" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="L112" s="145"/>
+      <c r="L112" s="141"/>
       <c r="M112" s="29" t="s">
         <v>302</v>
       </c>
@@ -37205,10 +37205,10 @@
         <v>214</v>
       </c>
       <c r="J113" s="82"/>
-      <c r="K113" s="144" t="s">
+      <c r="K113" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="L113" s="145"/>
+      <c r="L113" s="141"/>
       <c r="M113" s="29" t="s">
         <v>302</v>
       </c>
@@ -37315,20 +37315,20 @@
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="136" t="s">
+      <c r="D119" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="136"/>
-      <c r="F119" s="136"/>
-      <c r="G119" s="136"/>
-      <c r="H119" s="136"/>
-      <c r="I119" s="136"/>
-      <c r="J119" s="136"/>
-      <c r="K119" s="136"/>
-      <c r="L119" s="136"/>
-      <c r="M119" s="136"/>
-      <c r="N119" s="136"/>
-      <c r="O119" s="136"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="120"/>
+      <c r="G119" s="120"/>
+      <c r="H119" s="120"/>
+      <c r="I119" s="120"/>
+      <c r="J119" s="120"/>
+      <c r="K119" s="120"/>
+      <c r="L119" s="120"/>
+      <c r="M119" s="120"/>
+      <c r="N119" s="120"/>
+      <c r="O119" s="120"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="21"/>
@@ -37363,37 +37363,37 @@
         <v>39</v>
       </c>
       <c r="C132" s="21"/>
-      <c r="D132" s="132" t="s">
+      <c r="D132" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E132" s="133"/>
-      <c r="F132" s="133"/>
-      <c r="G132" s="133"/>
-      <c r="H132" s="133"/>
-      <c r="I132" s="133"/>
-      <c r="J132" s="133"/>
-      <c r="K132" s="133"/>
-      <c r="L132" s="133"/>
-      <c r="M132" s="133"/>
-      <c r="N132" s="133"/>
-      <c r="O132" s="134"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
+      <c r="J132" s="122"/>
+      <c r="K132" s="122"/>
+      <c r="L132" s="122"/>
+      <c r="M132" s="122"/>
+      <c r="N132" s="122"/>
+      <c r="O132" s="123"/>
     </row>
     <row r="133" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="34"/>
       <c r="C133" s="21"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="130"/>
-      <c r="F133" s="130"/>
-      <c r="G133" s="130"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="130"/>
-      <c r="L133" s="130"/>
-      <c r="M133" s="130"/>
-      <c r="N133" s="130"/>
-      <c r="O133" s="131"/>
+      <c r="D133" s="124"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="125"/>
+      <c r="G133" s="125"/>
+      <c r="H133" s="125"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="125"/>
+      <c r="L133" s="125"/>
+      <c r="M133" s="125"/>
+      <c r="N133" s="125"/>
+      <c r="O133" s="126"/>
     </row>
     <row r="134" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
@@ -37517,10 +37517,10 @@
       <c r="H140" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J140" s="144" t="s">
+      <c r="J140" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="K140" s="145"/>
+      <c r="K140" s="141"/>
       <c r="L140" s="87" t="s">
         <v>266</v>
       </c>
@@ -37542,10 +37542,10 @@
         <v>204</v>
       </c>
       <c r="I141" s="82"/>
-      <c r="J141" s="144" t="s">
+      <c r="J141" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K141" s="145"/>
+      <c r="K141" s="141"/>
       <c r="M141" s="29"/>
       <c r="N141" s="30"/>
       <c r="O141" s="42"/>
@@ -37561,10 +37561,10 @@
       <c r="H142" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J142" s="144" t="s">
+      <c r="J142" s="140" t="s">
         <v>252</v>
       </c>
-      <c r="K142" s="145"/>
+      <c r="K142" s="141"/>
       <c r="M142" s="29"/>
       <c r="N142" s="30"/>
       <c r="O142" s="42"/>
@@ -37580,10 +37580,10 @@
       <c r="H143" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J143" s="144" t="s">
+      <c r="J143" s="140" t="s">
         <v>254</v>
       </c>
-      <c r="K143" s="145"/>
+      <c r="K143" s="141"/>
       <c r="M143" s="29"/>
       <c r="N143" s="30"/>
       <c r="O143" s="42"/>
@@ -37599,10 +37599,10 @@
       <c r="H144" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J144" s="144" t="s">
+      <c r="J144" s="140" t="s">
         <v>256</v>
       </c>
-      <c r="K144" s="145"/>
+      <c r="K144" s="141"/>
       <c r="M144" s="29"/>
       <c r="N144" s="30"/>
       <c r="O144" s="42"/>
@@ -37618,10 +37618,10 @@
       <c r="H145" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J145" s="144" t="s">
+      <c r="J145" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="K145" s="145"/>
+      <c r="K145" s="141"/>
       <c r="M145" s="29"/>
       <c r="N145" s="30"/>
       <c r="O145" s="42"/>
@@ -37634,8 +37634,8 @@
       <c r="D146" s="41"/>
       <c r="E146" s="86"/>
       <c r="F146" s="68"/>
-      <c r="J146" s="149"/>
-      <c r="K146" s="145"/>
+      <c r="J146" s="142"/>
+      <c r="K146" s="141"/>
       <c r="M146" s="29"/>
       <c r="N146" s="30"/>
       <c r="O146" s="42"/>
@@ -37651,10 +37651,10 @@
       <c r="H147" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J147" s="149" t="s">
+      <c r="J147" s="142" t="s">
         <v>262</v>
       </c>
-      <c r="K147" s="145"/>
+      <c r="K147" s="141"/>
       <c r="M147" s="29"/>
       <c r="N147" s="30"/>
       <c r="O147" s="42"/>
@@ -37811,20 +37811,20 @@
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
-      <c r="D158" s="136" t="s">
+      <c r="D158" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="136"/>
-      <c r="F158" s="136"/>
-      <c r="G158" s="136"/>
-      <c r="H158" s="136"/>
-      <c r="I158" s="136"/>
-      <c r="J158" s="136"/>
-      <c r="K158" s="136"/>
-      <c r="L158" s="136"/>
-      <c r="M158" s="136"/>
-      <c r="N158" s="136"/>
-      <c r="O158" s="136"/>
+      <c r="E158" s="120"/>
+      <c r="F158" s="120"/>
+      <c r="G158" s="120"/>
+      <c r="H158" s="120"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="120"/>
+      <c r="K158" s="120"/>
+      <c r="L158" s="120"/>
+      <c r="M158" s="120"/>
+      <c r="N158" s="120"/>
+      <c r="O158" s="120"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="21"/>
@@ -37858,37 +37858,37 @@
         <v>39</v>
       </c>
       <c r="C171" s="21"/>
-      <c r="D171" s="132" t="s">
+      <c r="D171" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E171" s="133"/>
-      <c r="F171" s="133"/>
-      <c r="G171" s="133"/>
-      <c r="H171" s="133"/>
-      <c r="I171" s="133"/>
-      <c r="J171" s="133"/>
-      <c r="K171" s="133"/>
-      <c r="L171" s="133"/>
-      <c r="M171" s="133"/>
-      <c r="N171" s="133"/>
-      <c r="O171" s="134"/>
+      <c r="E171" s="122"/>
+      <c r="F171" s="122"/>
+      <c r="G171" s="122"/>
+      <c r="H171" s="122"/>
+      <c r="I171" s="122"/>
+      <c r="J171" s="122"/>
+      <c r="K171" s="122"/>
+      <c r="L171" s="122"/>
+      <c r="M171" s="122"/>
+      <c r="N171" s="122"/>
+      <c r="O171" s="123"/>
     </row>
     <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="34"/>
       <c r="C172" s="21"/>
-      <c r="D172" s="129"/>
-      <c r="E172" s="130"/>
-      <c r="F172" s="130"/>
-      <c r="G172" s="130"/>
-      <c r="H172" s="130"/>
-      <c r="I172" s="130"/>
-      <c r="J172" s="130"/>
-      <c r="K172" s="130"/>
-      <c r="L172" s="130"/>
-      <c r="M172" s="130"/>
-      <c r="N172" s="130"/>
-      <c r="O172" s="131"/>
+      <c r="D172" s="124"/>
+      <c r="E172" s="125"/>
+      <c r="F172" s="125"/>
+      <c r="G172" s="125"/>
+      <c r="H172" s="125"/>
+      <c r="I172" s="125"/>
+      <c r="J172" s="125"/>
+      <c r="K172" s="125"/>
+      <c r="L172" s="125"/>
+      <c r="M172" s="125"/>
+      <c r="N172" s="125"/>
+      <c r="O172" s="126"/>
     </row>
     <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
@@ -38011,10 +38011,10 @@
       <c r="H179" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J179" s="144" t="s">
+      <c r="J179" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="K179" s="145"/>
+      <c r="K179" s="141"/>
       <c r="L179" s="87" t="s">
         <v>266</v>
       </c>
@@ -38036,10 +38036,10 @@
         <v>204</v>
       </c>
       <c r="I180" s="82"/>
-      <c r="J180" s="144" t="s">
+      <c r="J180" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K180" s="145"/>
+      <c r="K180" s="141"/>
       <c r="M180" s="29"/>
       <c r="N180" s="30"/>
       <c r="O180" s="42"/>
@@ -38055,10 +38055,10 @@
       <c r="H181" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J181" s="144" t="s">
+      <c r="J181" s="140" t="s">
         <v>267</v>
       </c>
-      <c r="K181" s="145"/>
+      <c r="K181" s="141"/>
       <c r="M181" s="29"/>
       <c r="N181" s="30"/>
       <c r="O181" s="42"/>
@@ -38074,10 +38074,10 @@
       <c r="H182" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J182" s="144" t="s">
+      <c r="J182" s="140" t="s">
         <v>269</v>
       </c>
-      <c r="K182" s="145"/>
+      <c r="K182" s="141"/>
       <c r="M182" s="29"/>
       <c r="N182" s="30"/>
       <c r="O182" s="42"/>
@@ -38093,10 +38093,10 @@
       <c r="H183" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J183" s="144" t="s">
+      <c r="J183" s="140" t="s">
         <v>271</v>
       </c>
-      <c r="K183" s="145"/>
+      <c r="K183" s="141"/>
       <c r="M183" s="29"/>
       <c r="N183" s="30"/>
       <c r="O183" s="42"/>
@@ -38109,8 +38109,8 @@
       <c r="D184" s="41"/>
       <c r="E184" s="86"/>
       <c r="F184" s="68"/>
-      <c r="J184" s="149"/>
-      <c r="K184" s="151"/>
+      <c r="J184" s="142"/>
+      <c r="K184" s="143"/>
       <c r="M184" s="29"/>
       <c r="N184" s="30"/>
       <c r="O184" s="42"/>
@@ -38126,10 +38126,10 @@
       <c r="H185" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J185" s="149" t="s">
+      <c r="J185" s="142" t="s">
         <v>262</v>
       </c>
-      <c r="K185" s="145"/>
+      <c r="K185" s="141"/>
       <c r="M185" s="29"/>
       <c r="N185" s="30"/>
       <c r="O185" s="42"/>
@@ -38142,8 +38142,8 @@
       <c r="D186" s="41"/>
       <c r="E186" s="86"/>
       <c r="F186" s="68"/>
-      <c r="J186" s="149"/>
-      <c r="K186" s="145"/>
+      <c r="J186" s="142"/>
+      <c r="K186" s="141"/>
       <c r="M186" s="29"/>
       <c r="N186" s="30"/>
       <c r="O186" s="42"/>
@@ -38301,20 +38301,20 @@
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
-      <c r="D197" s="136" t="s">
+      <c r="D197" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="136"/>
-      <c r="F197" s="136"/>
-      <c r="G197" s="136"/>
-      <c r="H197" s="136"/>
-      <c r="I197" s="136"/>
-      <c r="J197" s="136"/>
-      <c r="K197" s="136"/>
-      <c r="L197" s="136"/>
-      <c r="M197" s="136"/>
-      <c r="N197" s="136"/>
-      <c r="O197" s="136"/>
+      <c r="E197" s="120"/>
+      <c r="F197" s="120"/>
+      <c r="G197" s="120"/>
+      <c r="H197" s="120"/>
+      <c r="I197" s="120"/>
+      <c r="J197" s="120"/>
+      <c r="K197" s="120"/>
+      <c r="L197" s="120"/>
+      <c r="M197" s="120"/>
+      <c r="N197" s="120"/>
+      <c r="O197" s="120"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="21"/>
@@ -38348,37 +38348,37 @@
         <v>39</v>
       </c>
       <c r="C210" s="21"/>
-      <c r="D210" s="132" t="s">
+      <c r="D210" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E210" s="133"/>
-      <c r="F210" s="133"/>
-      <c r="G210" s="133"/>
-      <c r="H210" s="133"/>
-      <c r="I210" s="133"/>
-      <c r="J210" s="133"/>
-      <c r="K210" s="133"/>
-      <c r="L210" s="133"/>
-      <c r="M210" s="133"/>
-      <c r="N210" s="133"/>
-      <c r="O210" s="134"/>
+      <c r="E210" s="122"/>
+      <c r="F210" s="122"/>
+      <c r="G210" s="122"/>
+      <c r="H210" s="122"/>
+      <c r="I210" s="122"/>
+      <c r="J210" s="122"/>
+      <c r="K210" s="122"/>
+      <c r="L210" s="122"/>
+      <c r="M210" s="122"/>
+      <c r="N210" s="122"/>
+      <c r="O210" s="123"/>
     </row>
     <row r="211" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="34"/>
       <c r="C211" s="21"/>
-      <c r="D211" s="129"/>
-      <c r="E211" s="130"/>
-      <c r="F211" s="130"/>
-      <c r="G211" s="130"/>
-      <c r="H211" s="130"/>
-      <c r="I211" s="130"/>
-      <c r="J211" s="130"/>
-      <c r="K211" s="130"/>
-      <c r="L211" s="130"/>
-      <c r="M211" s="130"/>
-      <c r="N211" s="130"/>
-      <c r="O211" s="131"/>
+      <c r="D211" s="124"/>
+      <c r="E211" s="125"/>
+      <c r="F211" s="125"/>
+      <c r="G211" s="125"/>
+      <c r="H211" s="125"/>
+      <c r="I211" s="125"/>
+      <c r="J211" s="125"/>
+      <c r="K211" s="125"/>
+      <c r="L211" s="125"/>
+      <c r="M211" s="125"/>
+      <c r="N211" s="125"/>
+      <c r="O211" s="126"/>
     </row>
     <row r="212" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
@@ -38484,8 +38484,8 @@
       <c r="D217" s="41"/>
       <c r="E217" s="86"/>
       <c r="I217" s="80"/>
-      <c r="J217" s="148"/>
-      <c r="K217" s="148"/>
+      <c r="J217" s="146"/>
+      <c r="K217" s="146"/>
       <c r="L217" s="29"/>
       <c r="M217" s="30"/>
       <c r="N217" s="30"/>
@@ -38504,10 +38504,10 @@
       <c r="H218" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J218" s="150" t="s">
+      <c r="J218" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="K218" s="150"/>
+      <c r="K218" s="145"/>
       <c r="L218" s="29"/>
       <c r="M218" s="30"/>
       <c r="N218" s="30"/>
@@ -38527,10 +38527,10 @@
         <v>223</v>
       </c>
       <c r="I219" s="80"/>
-      <c r="J219" s="149" t="s">
+      <c r="J219" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="K219" s="151"/>
+      <c r="K219" s="143"/>
       <c r="L219" s="29"/>
       <c r="M219" s="30"/>
       <c r="N219" s="30"/>
@@ -38548,10 +38548,10 @@
         <v>204</v>
       </c>
       <c r="I220" s="82"/>
-      <c r="J220" s="144" t="s">
+      <c r="J220" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K220" s="145"/>
+      <c r="K220" s="141"/>
       <c r="L220" s="29"/>
       <c r="M220" s="30"/>
       <c r="N220" s="30"/>
@@ -38569,10 +38569,10 @@
         <v>205</v>
       </c>
       <c r="I221" s="82"/>
-      <c r="J221" s="144" t="s">
+      <c r="J221" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="K221" s="145"/>
+      <c r="K221" s="141"/>
       <c r="L221" s="29"/>
       <c r="M221" s="30"/>
       <c r="N221" s="30"/>
@@ -38592,10 +38592,10 @@
       <c r="I222" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="J222" s="144" t="s">
+      <c r="J222" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="K222" s="145"/>
+      <c r="K222" s="141"/>
       <c r="L222" s="29"/>
       <c r="M222" s="30"/>
       <c r="N222" s="30"/>
@@ -38613,10 +38613,10 @@
         <v>207</v>
       </c>
       <c r="I223" s="82"/>
-      <c r="J223" s="144" t="s">
+      <c r="J223" s="140" t="s">
         <v>280</v>
       </c>
-      <c r="K223" s="145"/>
+      <c r="K223" s="141"/>
       <c r="L223" s="29" t="s">
         <v>305</v>
       </c>
@@ -38636,10 +38636,10 @@
         <v>208</v>
       </c>
       <c r="I224" s="82"/>
-      <c r="J224" s="144" t="s">
+      <c r="J224" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="K224" s="145"/>
+      <c r="K224" s="141"/>
       <c r="L224" s="29"/>
       <c r="M224" s="30"/>
       <c r="N224" s="30"/>
@@ -38657,10 +38657,10 @@
         <v>209</v>
       </c>
       <c r="I225" s="82"/>
-      <c r="J225" s="144" t="s">
+      <c r="J225" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="K225" s="145"/>
+      <c r="K225" s="141"/>
       <c r="L225" s="29"/>
       <c r="M225" s="30"/>
       <c r="N225" s="30"/>
@@ -38678,10 +38678,10 @@
         <v>210</v>
       </c>
       <c r="I226" s="82"/>
-      <c r="J226" s="144" t="s">
+      <c r="J226" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="K226" s="145"/>
+      <c r="K226" s="141"/>
       <c r="L226" s="29"/>
       <c r="M226" s="30"/>
       <c r="N226" s="30"/>
@@ -38699,10 +38699,10 @@
         <v>211</v>
       </c>
       <c r="I227" s="82"/>
-      <c r="J227" s="144" t="s">
+      <c r="J227" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="K227" s="145"/>
+      <c r="K227" s="141"/>
       <c r="L227" s="29"/>
       <c r="M227" s="30"/>
       <c r="N227" s="30"/>
@@ -38720,10 +38720,10 @@
         <v>212</v>
       </c>
       <c r="I228" s="82"/>
-      <c r="J228" s="144" t="s">
+      <c r="J228" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="K228" s="145"/>
+      <c r="K228" s="141"/>
       <c r="L228" s="29"/>
       <c r="M228" s="30"/>
       <c r="N228" s="30"/>
@@ -38741,10 +38741,10 @@
         <v>213</v>
       </c>
       <c r="I229" s="82"/>
-      <c r="J229" s="144" t="s">
+      <c r="J229" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="K229" s="145"/>
+      <c r="K229" s="141"/>
       <c r="L229" s="29"/>
       <c r="M229" s="30"/>
       <c r="N229" s="30"/>
@@ -38762,10 +38762,10 @@
         <v>214</v>
       </c>
       <c r="I230" s="82"/>
-      <c r="J230" s="144" t="s">
+      <c r="J230" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="K230" s="145"/>
+      <c r="K230" s="141"/>
       <c r="L230" s="29"/>
       <c r="M230" s="30"/>
       <c r="N230" s="30"/>
@@ -38871,20 +38871,20 @@
       <c r="A236" s="21"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
-      <c r="D236" s="136" t="s">
+      <c r="D236" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E236" s="136"/>
-      <c r="F236" s="136"/>
-      <c r="G236" s="136"/>
-      <c r="H236" s="136"/>
-      <c r="I236" s="136"/>
-      <c r="J236" s="136"/>
-      <c r="K236" s="136"/>
-      <c r="L236" s="136"/>
-      <c r="M236" s="136"/>
-      <c r="N236" s="136"/>
-      <c r="O236" s="136"/>
+      <c r="E236" s="120"/>
+      <c r="F236" s="120"/>
+      <c r="G236" s="120"/>
+      <c r="H236" s="120"/>
+      <c r="I236" s="120"/>
+      <c r="J236" s="120"/>
+      <c r="K236" s="120"/>
+      <c r="L236" s="120"/>
+      <c r="M236" s="120"/>
+      <c r="N236" s="120"/>
+      <c r="O236" s="120"/>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="21"/>
@@ -38908,11 +38908,49 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="D52:O52"/>
-    <mergeCell ref="D53:O53"/>
-    <mergeCell ref="D78:O78"/>
-    <mergeCell ref="D93:O93"/>
+    <mergeCell ref="D236:O236"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="D197:O197"/>
+    <mergeCell ref="D210:O210"/>
+    <mergeCell ref="D211:O211"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="D158:O158"/>
+    <mergeCell ref="D171:O171"/>
+    <mergeCell ref="D172:O172"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="D119:O119"/>
+    <mergeCell ref="D132:O132"/>
+    <mergeCell ref="D133:O133"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="J144:K144"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="D94:O94"/>
     <mergeCell ref="K100:L100"/>
@@ -38925,49 +38963,11 @@
     <mergeCell ref="K107:L107"/>
     <mergeCell ref="K108:L108"/>
     <mergeCell ref="K109:L109"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="D119:O119"/>
-    <mergeCell ref="D132:O132"/>
-    <mergeCell ref="D133:O133"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="D158:O158"/>
-    <mergeCell ref="D171:O171"/>
-    <mergeCell ref="D172:O172"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="D197:O197"/>
-    <mergeCell ref="D210:O210"/>
-    <mergeCell ref="D211:O211"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="D236:O236"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="D52:O52"/>
+    <mergeCell ref="D53:O53"/>
+    <mergeCell ref="D78:O78"/>
+    <mergeCell ref="D93:O93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K56:K63" r:id="rId1" display="123@vpbank.com.vn" xr:uid="{D2732AE2-5E43-4F2C-912F-6B2A97AF163C}"/>
@@ -39533,20 +39533,20 @@
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="152" t="s">
+      <c r="D37" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
       <c r="P37" s="24"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -39582,37 +39582,37 @@
         <v>39</v>
       </c>
       <c r="C52" s="21"/>
-      <c r="D52" s="132" t="s">
+      <c r="D52" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="134"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="123"/>
     </row>
     <row r="53" spans="1:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="34"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="131"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="125"/>
+      <c r="O53" s="126"/>
     </row>
     <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
@@ -39707,10 +39707,10 @@
       <c r="J58" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="K58" s="120" t="s">
+      <c r="K58" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="L58" s="121"/>
+      <c r="L58" s="134"/>
       <c r="M58" s="29"/>
       <c r="N58" s="29"/>
       <c r="O58" s="42"/>
@@ -40113,20 +40113,20 @@
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="136" t="s">
+      <c r="D78" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="136"/>
-      <c r="F78" s="136"/>
-      <c r="G78" s="136"/>
-      <c r="H78" s="136"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="136"/>
-      <c r="K78" s="136"/>
-      <c r="L78" s="136"/>
-      <c r="M78" s="136"/>
-      <c r="N78" s="136"/>
-      <c r="O78" s="136"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
@@ -40161,39 +40161,39 @@
         <v>39</v>
       </c>
       <c r="C93" s="21"/>
-      <c r="D93" s="132" t="s">
+      <c r="D93" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="133"/>
-      <c r="F93" s="133"/>
-      <c r="G93" s="133"/>
-      <c r="H93" s="133"/>
-      <c r="I93" s="133"/>
-      <c r="J93" s="133"/>
-      <c r="K93" s="133"/>
-      <c r="L93" s="133"/>
-      <c r="M93" s="133"/>
-      <c r="N93" s="133"/>
-      <c r="O93" s="134"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="122"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="122"/>
+      <c r="M93" s="122"/>
+      <c r="N93" s="122"/>
+      <c r="O93" s="123"/>
     </row>
     <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="34"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="129" t="s">
+      <c r="D94" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="130"/>
-      <c r="L94" s="130"/>
-      <c r="M94" s="130"/>
-      <c r="N94" s="130"/>
-      <c r="O94" s="131"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="125"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="125"/>
+      <c r="L94" s="125"/>
+      <c r="M94" s="125"/>
+      <c r="N94" s="125"/>
+      <c r="O94" s="126"/>
     </row>
     <row r="95" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
@@ -40301,10 +40301,10 @@
         <v>246</v>
       </c>
       <c r="J100" s="80"/>
-      <c r="K100" s="150" t="s">
+      <c r="K100" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="L100" s="150"/>
+      <c r="L100" s="145"/>
       <c r="M100" s="29"/>
       <c r="N100" s="30"/>
       <c r="O100" s="42"/>
@@ -40322,10 +40322,10 @@
       <c r="I101" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K101" s="150" t="s">
+      <c r="K101" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="L101" s="150"/>
+      <c r="L101" s="145"/>
       <c r="M101" s="29"/>
       <c r="N101" s="30"/>
       <c r="O101" s="42"/>
@@ -40344,10 +40344,10 @@
         <v>223</v>
       </c>
       <c r="J102" s="80"/>
-      <c r="K102" s="149" t="s">
+      <c r="K102" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="L102" s="151"/>
+      <c r="L102" s="143"/>
       <c r="M102" s="29"/>
       <c r="N102" s="30"/>
       <c r="O102" s="42"/>
@@ -40364,10 +40364,10 @@
         <v>204</v>
       </c>
       <c r="J103" s="82"/>
-      <c r="K103" s="144" t="s">
+      <c r="K103" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="L103" s="145"/>
+      <c r="L103" s="141"/>
       <c r="M103" s="29"/>
       <c r="N103" s="30"/>
       <c r="O103" s="42"/>
@@ -40384,10 +40384,10 @@
         <v>205</v>
       </c>
       <c r="J104" s="82"/>
-      <c r="K104" s="144" t="s">
+      <c r="K104" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="L104" s="145"/>
+      <c r="L104" s="141"/>
       <c r="M104" s="29"/>
       <c r="N104" s="30"/>
       <c r="O104" s="42"/>
@@ -40406,10 +40406,10 @@
       <c r="J105" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="K105" s="144" t="s">
+      <c r="K105" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="L105" s="145"/>
+      <c r="L105" s="141"/>
       <c r="M105" s="29"/>
       <c r="N105" s="30"/>
       <c r="O105" s="42"/>
@@ -40426,10 +40426,10 @@
         <v>207</v>
       </c>
       <c r="J106" s="82"/>
-      <c r="K106" s="144">
+      <c r="K106" s="140">
         <v>60</v>
       </c>
-      <c r="L106" s="145"/>
+      <c r="L106" s="141"/>
       <c r="M106" s="29"/>
       <c r="N106" s="30"/>
       <c r="O106" s="42"/>
@@ -40446,10 +40446,10 @@
         <v>208</v>
       </c>
       <c r="J107" s="82"/>
-      <c r="K107" s="144" t="s">
+      <c r="K107" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="L107" s="145"/>
+      <c r="L107" s="141"/>
       <c r="M107" s="29"/>
       <c r="N107" s="30"/>
       <c r="O107" s="42"/>
@@ -40466,10 +40466,10 @@
         <v>209</v>
       </c>
       <c r="J108" s="82"/>
-      <c r="K108" s="144" t="s">
+      <c r="K108" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="L108" s="145"/>
+      <c r="L108" s="141"/>
       <c r="M108" s="29"/>
       <c r="N108" s="30"/>
       <c r="O108" s="42"/>
@@ -40486,10 +40486,10 @@
         <v>210</v>
       </c>
       <c r="J109" s="82"/>
-      <c r="K109" s="144" t="s">
+      <c r="K109" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="L109" s="145"/>
+      <c r="L109" s="141"/>
       <c r="M109" s="29"/>
       <c r="N109" s="30"/>
       <c r="O109" s="42"/>
@@ -40506,10 +40506,10 @@
         <v>211</v>
       </c>
       <c r="J110" s="82"/>
-      <c r="K110" s="144" t="s">
+      <c r="K110" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="L110" s="145"/>
+      <c r="L110" s="141"/>
       <c r="M110" s="29"/>
       <c r="N110" s="30"/>
       <c r="O110" s="42"/>
@@ -40526,10 +40526,10 @@
         <v>212</v>
       </c>
       <c r="J111" s="82"/>
-      <c r="K111" s="144" t="s">
+      <c r="K111" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="L111" s="145"/>
+      <c r="L111" s="141"/>
       <c r="M111" s="29"/>
       <c r="N111" s="30"/>
       <c r="O111" s="42"/>
@@ -40546,10 +40546,10 @@
         <v>213</v>
       </c>
       <c r="J112" s="82"/>
-      <c r="K112" s="144" t="s">
+      <c r="K112" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="L112" s="145"/>
+      <c r="L112" s="141"/>
       <c r="M112" s="29"/>
       <c r="N112" s="30"/>
       <c r="O112" s="42"/>
@@ -40566,10 +40566,10 @@
         <v>214</v>
       </c>
       <c r="J113" s="82"/>
-      <c r="K113" s="144" t="s">
+      <c r="K113" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="L113" s="145"/>
+      <c r="L113" s="141"/>
       <c r="M113" s="29"/>
       <c r="N113" s="30"/>
       <c r="O113" s="42"/>
@@ -40672,20 +40672,20 @@
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="136" t="s">
+      <c r="D119" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="136"/>
-      <c r="F119" s="136"/>
-      <c r="G119" s="136"/>
-      <c r="H119" s="136"/>
-      <c r="I119" s="136"/>
-      <c r="J119" s="136"/>
-      <c r="K119" s="136"/>
-      <c r="L119" s="136"/>
-      <c r="M119" s="136"/>
-      <c r="N119" s="136"/>
-      <c r="O119" s="136"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="120"/>
+      <c r="G119" s="120"/>
+      <c r="H119" s="120"/>
+      <c r="I119" s="120"/>
+      <c r="J119" s="120"/>
+      <c r="K119" s="120"/>
+      <c r="L119" s="120"/>
+      <c r="M119" s="120"/>
+      <c r="N119" s="120"/>
+      <c r="O119" s="120"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="21"/>
@@ -40720,37 +40720,37 @@
         <v>39</v>
       </c>
       <c r="C132" s="21"/>
-      <c r="D132" s="132" t="s">
+      <c r="D132" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E132" s="133"/>
-      <c r="F132" s="133"/>
-      <c r="G132" s="133"/>
-      <c r="H132" s="133"/>
-      <c r="I132" s="133"/>
-      <c r="J132" s="133"/>
-      <c r="K132" s="133"/>
-      <c r="L132" s="133"/>
-      <c r="M132" s="133"/>
-      <c r="N132" s="133"/>
-      <c r="O132" s="134"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
+      <c r="J132" s="122"/>
+      <c r="K132" s="122"/>
+      <c r="L132" s="122"/>
+      <c r="M132" s="122"/>
+      <c r="N132" s="122"/>
+      <c r="O132" s="123"/>
     </row>
     <row r="133" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="34"/>
       <c r="C133" s="21"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="130"/>
-      <c r="F133" s="130"/>
-      <c r="G133" s="130"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="130"/>
-      <c r="L133" s="130"/>
-      <c r="M133" s="130"/>
-      <c r="N133" s="130"/>
-      <c r="O133" s="131"/>
+      <c r="D133" s="124"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="125"/>
+      <c r="G133" s="125"/>
+      <c r="H133" s="125"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="125"/>
+      <c r="L133" s="125"/>
+      <c r="M133" s="125"/>
+      <c r="N133" s="125"/>
+      <c r="O133" s="126"/>
     </row>
     <row r="134" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
@@ -40874,10 +40874,10 @@
       <c r="H140" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J140" s="144" t="s">
+      <c r="J140" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="K140" s="145"/>
+      <c r="K140" s="141"/>
       <c r="L140" s="87" t="s">
         <v>266</v>
       </c>
@@ -40899,10 +40899,10 @@
         <v>204</v>
       </c>
       <c r="I141" s="82"/>
-      <c r="J141" s="144" t="s">
+      <c r="J141" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K141" s="145"/>
+      <c r="K141" s="141"/>
       <c r="M141" s="29"/>
       <c r="N141" s="30"/>
       <c r="O141" s="42"/>
@@ -40918,10 +40918,10 @@
       <c r="H142" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J142" s="144" t="s">
+      <c r="J142" s="140" t="s">
         <v>252</v>
       </c>
-      <c r="K142" s="145"/>
+      <c r="K142" s="141"/>
       <c r="M142" s="29"/>
       <c r="N142" s="30"/>
       <c r="O142" s="42"/>
@@ -40937,10 +40937,10 @@
       <c r="H143" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J143" s="144" t="s">
+      <c r="J143" s="140" t="s">
         <v>254</v>
       </c>
-      <c r="K143" s="145"/>
+      <c r="K143" s="141"/>
       <c r="M143" s="29"/>
       <c r="N143" s="30"/>
       <c r="O143" s="42"/>
@@ -40956,10 +40956,10 @@
       <c r="H144" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J144" s="144" t="s">
+      <c r="J144" s="140" t="s">
         <v>256</v>
       </c>
-      <c r="K144" s="145"/>
+      <c r="K144" s="141"/>
       <c r="M144" s="29"/>
       <c r="N144" s="30"/>
       <c r="O144" s="42"/>
@@ -40975,10 +40975,10 @@
       <c r="H145" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J145" s="144" t="s">
+      <c r="J145" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="K145" s="145"/>
+      <c r="K145" s="141"/>
       <c r="M145" s="29"/>
       <c r="N145" s="30"/>
       <c r="O145" s="42"/>
@@ -40994,10 +40994,10 @@
       <c r="H146" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J146" s="149" t="s">
+      <c r="J146" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="K146" s="145"/>
+      <c r="K146" s="141"/>
       <c r="M146" s="29"/>
       <c r="N146" s="30"/>
       <c r="O146" s="42"/>
@@ -41013,10 +41013,10 @@
       <c r="H147" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J147" s="149" t="s">
+      <c r="J147" s="142" t="s">
         <v>262</v>
       </c>
-      <c r="K147" s="145"/>
+      <c r="K147" s="141"/>
       <c r="M147" s="29"/>
       <c r="N147" s="30"/>
       <c r="O147" s="42"/>
@@ -41173,20 +41173,20 @@
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
-      <c r="D158" s="136" t="s">
+      <c r="D158" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="136"/>
-      <c r="F158" s="136"/>
-      <c r="G158" s="136"/>
-      <c r="H158" s="136"/>
-      <c r="I158" s="136"/>
-      <c r="J158" s="136"/>
-      <c r="K158" s="136"/>
-      <c r="L158" s="136"/>
-      <c r="M158" s="136"/>
-      <c r="N158" s="136"/>
-      <c r="O158" s="136"/>
+      <c r="E158" s="120"/>
+      <c r="F158" s="120"/>
+      <c r="G158" s="120"/>
+      <c r="H158" s="120"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="120"/>
+      <c r="K158" s="120"/>
+      <c r="L158" s="120"/>
+      <c r="M158" s="120"/>
+      <c r="N158" s="120"/>
+      <c r="O158" s="120"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="21"/>
@@ -41220,37 +41220,37 @@
         <v>39</v>
       </c>
       <c r="C171" s="21"/>
-      <c r="D171" s="132" t="s">
+      <c r="D171" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E171" s="133"/>
-      <c r="F171" s="133"/>
-      <c r="G171" s="133"/>
-      <c r="H171" s="133"/>
-      <c r="I171" s="133"/>
-      <c r="J171" s="133"/>
-      <c r="K171" s="133"/>
-      <c r="L171" s="133"/>
-      <c r="M171" s="133"/>
-      <c r="N171" s="133"/>
-      <c r="O171" s="134"/>
+      <c r="E171" s="122"/>
+      <c r="F171" s="122"/>
+      <c r="G171" s="122"/>
+      <c r="H171" s="122"/>
+      <c r="I171" s="122"/>
+      <c r="J171" s="122"/>
+      <c r="K171" s="122"/>
+      <c r="L171" s="122"/>
+      <c r="M171" s="122"/>
+      <c r="N171" s="122"/>
+      <c r="O171" s="123"/>
     </row>
     <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="34"/>
       <c r="C172" s="21"/>
-      <c r="D172" s="129"/>
-      <c r="E172" s="130"/>
-      <c r="F172" s="130"/>
-      <c r="G172" s="130"/>
-      <c r="H172" s="130"/>
-      <c r="I172" s="130"/>
-      <c r="J172" s="130"/>
-      <c r="K172" s="130"/>
-      <c r="L172" s="130"/>
-      <c r="M172" s="130"/>
-      <c r="N172" s="130"/>
-      <c r="O172" s="131"/>
+      <c r="D172" s="124"/>
+      <c r="E172" s="125"/>
+      <c r="F172" s="125"/>
+      <c r="G172" s="125"/>
+      <c r="H172" s="125"/>
+      <c r="I172" s="125"/>
+      <c r="J172" s="125"/>
+      <c r="K172" s="125"/>
+      <c r="L172" s="125"/>
+      <c r="M172" s="125"/>
+      <c r="N172" s="125"/>
+      <c r="O172" s="126"/>
     </row>
     <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
@@ -41373,10 +41373,10 @@
       <c r="H179" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J179" s="144" t="s">
+      <c r="J179" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="K179" s="145"/>
+      <c r="K179" s="141"/>
       <c r="L179" s="87" t="s">
         <v>266</v>
       </c>
@@ -41398,10 +41398,10 @@
         <v>204</v>
       </c>
       <c r="I180" s="82"/>
-      <c r="J180" s="144" t="s">
+      <c r="J180" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K180" s="145"/>
+      <c r="K180" s="141"/>
       <c r="M180" s="29"/>
       <c r="N180" s="30"/>
       <c r="O180" s="42"/>
@@ -41417,10 +41417,10 @@
       <c r="H181" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J181" s="144" t="s">
+      <c r="J181" s="140" t="s">
         <v>267</v>
       </c>
-      <c r="K181" s="145"/>
+      <c r="K181" s="141"/>
       <c r="M181" s="29"/>
       <c r="N181" s="30"/>
       <c r="O181" s="42"/>
@@ -41436,10 +41436,10 @@
       <c r="H182" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J182" s="144" t="s">
+      <c r="J182" s="140" t="s">
         <v>269</v>
       </c>
-      <c r="K182" s="145"/>
+      <c r="K182" s="141"/>
       <c r="M182" s="29"/>
       <c r="N182" s="30"/>
       <c r="O182" s="42"/>
@@ -41455,10 +41455,10 @@
       <c r="H183" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J183" s="144" t="s">
+      <c r="J183" s="140" t="s">
         <v>271</v>
       </c>
-      <c r="K183" s="145"/>
+      <c r="K183" s="141"/>
       <c r="M183" s="29"/>
       <c r="N183" s="30"/>
       <c r="O183" s="42"/>
@@ -41474,10 +41474,10 @@
       <c r="H184" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J184" s="149" t="s">
+      <c r="J184" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="K184" s="151"/>
+      <c r="K184" s="143"/>
       <c r="M184" s="29"/>
       <c r="N184" s="30"/>
       <c r="O184" s="42"/>
@@ -41493,10 +41493,10 @@
       <c r="H185" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J185" s="149" t="s">
+      <c r="J185" s="142" t="s">
         <v>262</v>
       </c>
-      <c r="K185" s="145"/>
+      <c r="K185" s="141"/>
       <c r="M185" s="29"/>
       <c r="N185" s="30"/>
       <c r="O185" s="42"/>
@@ -41509,8 +41509,8 @@
       <c r="D186" s="41"/>
       <c r="E186" s="86"/>
       <c r="F186" s="68"/>
-      <c r="J186" s="149"/>
-      <c r="K186" s="145"/>
+      <c r="J186" s="142"/>
+      <c r="K186" s="141"/>
       <c r="M186" s="29"/>
       <c r="N186" s="30"/>
       <c r="O186" s="42"/>
@@ -41668,20 +41668,20 @@
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
-      <c r="D197" s="136" t="s">
+      <c r="D197" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="136"/>
-      <c r="F197" s="136"/>
-      <c r="G197" s="136"/>
-      <c r="H197" s="136"/>
-      <c r="I197" s="136"/>
-      <c r="J197" s="136"/>
-      <c r="K197" s="136"/>
-      <c r="L197" s="136"/>
-      <c r="M197" s="136"/>
-      <c r="N197" s="136"/>
-      <c r="O197" s="136"/>
+      <c r="E197" s="120"/>
+      <c r="F197" s="120"/>
+      <c r="G197" s="120"/>
+      <c r="H197" s="120"/>
+      <c r="I197" s="120"/>
+      <c r="J197" s="120"/>
+      <c r="K197" s="120"/>
+      <c r="L197" s="120"/>
+      <c r="M197" s="120"/>
+      <c r="N197" s="120"/>
+      <c r="O197" s="120"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="21"/>
@@ -41715,37 +41715,37 @@
         <v>39</v>
       </c>
       <c r="C210" s="21"/>
-      <c r="D210" s="132" t="s">
+      <c r="D210" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E210" s="133"/>
-      <c r="F210" s="133"/>
-      <c r="G210" s="133"/>
-      <c r="H210" s="133"/>
-      <c r="I210" s="133"/>
-      <c r="J210" s="133"/>
-      <c r="K210" s="133"/>
-      <c r="L210" s="133"/>
-      <c r="M210" s="133"/>
-      <c r="N210" s="133"/>
-      <c r="O210" s="134"/>
+      <c r="E210" s="122"/>
+      <c r="F210" s="122"/>
+      <c r="G210" s="122"/>
+      <c r="H210" s="122"/>
+      <c r="I210" s="122"/>
+      <c r="J210" s="122"/>
+      <c r="K210" s="122"/>
+      <c r="L210" s="122"/>
+      <c r="M210" s="122"/>
+      <c r="N210" s="122"/>
+      <c r="O210" s="123"/>
     </row>
     <row r="211" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="34"/>
       <c r="C211" s="21"/>
-      <c r="D211" s="129"/>
-      <c r="E211" s="130"/>
-      <c r="F211" s="130"/>
-      <c r="G211" s="130"/>
-      <c r="H211" s="130"/>
-      <c r="I211" s="130"/>
-      <c r="J211" s="130"/>
-      <c r="K211" s="130"/>
-      <c r="L211" s="130"/>
-      <c r="M211" s="130"/>
-      <c r="N211" s="130"/>
-      <c r="O211" s="131"/>
+      <c r="D211" s="124"/>
+      <c r="E211" s="125"/>
+      <c r="F211" s="125"/>
+      <c r="G211" s="125"/>
+      <c r="H211" s="125"/>
+      <c r="I211" s="125"/>
+      <c r="J211" s="125"/>
+      <c r="K211" s="125"/>
+      <c r="L211" s="125"/>
+      <c r="M211" s="125"/>
+      <c r="N211" s="125"/>
+      <c r="O211" s="126"/>
     </row>
     <row r="212" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
@@ -41851,8 +41851,8 @@
       <c r="D217" s="41"/>
       <c r="E217" s="86"/>
       <c r="I217" s="80"/>
-      <c r="J217" s="148"/>
-      <c r="K217" s="148"/>
+      <c r="J217" s="146"/>
+      <c r="K217" s="146"/>
       <c r="L217" s="29"/>
       <c r="M217" s="29"/>
       <c r="N217" s="30"/>
@@ -41871,10 +41871,10 @@
       <c r="H218" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J218" s="150" t="s">
+      <c r="J218" s="145" t="s">
         <v>279</v>
       </c>
-      <c r="K218" s="150"/>
+      <c r="K218" s="145"/>
       <c r="L218" s="29"/>
       <c r="M218" s="29"/>
       <c r="N218" s="30"/>
@@ -41894,10 +41894,10 @@
         <v>223</v>
       </c>
       <c r="I219" s="80"/>
-      <c r="J219" s="149" t="s">
+      <c r="J219" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="K219" s="151"/>
+      <c r="K219" s="143"/>
       <c r="L219" s="29"/>
       <c r="M219" s="29"/>
       <c r="N219" s="30"/>
@@ -41915,10 +41915,10 @@
         <v>204</v>
       </c>
       <c r="I220" s="82"/>
-      <c r="J220" s="144" t="s">
+      <c r="J220" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K220" s="145"/>
+      <c r="K220" s="141"/>
       <c r="L220" s="29"/>
       <c r="M220" s="29"/>
       <c r="N220" s="30"/>
@@ -41936,10 +41936,10 @@
         <v>205</v>
       </c>
       <c r="I221" s="82"/>
-      <c r="J221" s="144" t="s">
+      <c r="J221" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="K221" s="145"/>
+      <c r="K221" s="141"/>
       <c r="L221" s="29"/>
       <c r="M221" s="29"/>
       <c r="N221" s="30"/>
@@ -41959,10 +41959,10 @@
       <c r="I222" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="J222" s="144" t="s">
+      <c r="J222" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="K222" s="145"/>
+      <c r="K222" s="141"/>
       <c r="L222" s="29"/>
       <c r="M222" s="29"/>
       <c r="N222" s="30"/>
@@ -41980,10 +41980,10 @@
         <v>207</v>
       </c>
       <c r="I223" s="82"/>
-      <c r="J223" s="144" t="s">
+      <c r="J223" s="140" t="s">
         <v>280</v>
       </c>
-      <c r="K223" s="145"/>
+      <c r="K223" s="141"/>
       <c r="L223" s="29"/>
       <c r="M223" s="29"/>
       <c r="N223" s="30"/>
@@ -42001,10 +42001,10 @@
         <v>208</v>
       </c>
       <c r="I224" s="82"/>
-      <c r="J224" s="144" t="s">
+      <c r="J224" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="K224" s="145"/>
+      <c r="K224" s="141"/>
       <c r="L224" s="29"/>
       <c r="M224" s="29"/>
       <c r="N224" s="30"/>
@@ -42022,10 +42022,10 @@
         <v>209</v>
       </c>
       <c r="I225" s="82"/>
-      <c r="J225" s="144" t="s">
+      <c r="J225" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="K225" s="145"/>
+      <c r="K225" s="141"/>
       <c r="L225" s="29"/>
       <c r="M225" s="29"/>
       <c r="N225" s="30"/>
@@ -42043,10 +42043,10 @@
         <v>210</v>
       </c>
       <c r="I226" s="82"/>
-      <c r="J226" s="144" t="s">
+      <c r="J226" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="K226" s="145"/>
+      <c r="K226" s="141"/>
       <c r="L226" s="29"/>
       <c r="M226" s="29"/>
       <c r="N226" s="30"/>
@@ -42064,10 +42064,10 @@
         <v>211</v>
       </c>
       <c r="I227" s="82"/>
-      <c r="J227" s="144" t="s">
+      <c r="J227" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="K227" s="145"/>
+      <c r="K227" s="141"/>
       <c r="L227" s="29"/>
       <c r="M227" s="29"/>
       <c r="N227" s="30"/>
@@ -42085,10 +42085,10 @@
         <v>212</v>
       </c>
       <c r="I228" s="82"/>
-      <c r="J228" s="144" t="s">
+      <c r="J228" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="K228" s="145"/>
+      <c r="K228" s="141"/>
       <c r="L228" s="29"/>
       <c r="M228" s="29"/>
       <c r="N228" s="30"/>
@@ -42106,10 +42106,10 @@
         <v>213</v>
       </c>
       <c r="I229" s="82"/>
-      <c r="J229" s="144" t="s">
+      <c r="J229" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="K229" s="145"/>
+      <c r="K229" s="141"/>
       <c r="L229" s="29"/>
       <c r="M229" s="29"/>
       <c r="N229" s="30"/>
@@ -42127,10 +42127,10 @@
         <v>214</v>
       </c>
       <c r="I230" s="82"/>
-      <c r="J230" s="144" t="s">
+      <c r="J230" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="K230" s="145"/>
+      <c r="K230" s="141"/>
       <c r="L230" s="29"/>
       <c r="M230" s="29"/>
       <c r="N230" s="30"/>
@@ -42236,20 +42236,20 @@
       <c r="A236" s="21"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
-      <c r="D236" s="136" t="s">
+      <c r="D236" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E236" s="136"/>
-      <c r="F236" s="136"/>
-      <c r="G236" s="136"/>
-      <c r="H236" s="136"/>
-      <c r="I236" s="136"/>
-      <c r="J236" s="136"/>
-      <c r="K236" s="136"/>
-      <c r="L236" s="136"/>
-      <c r="M236" s="136"/>
-      <c r="N236" s="136"/>
-      <c r="O236" s="136"/>
+      <c r="E236" s="120"/>
+      <c r="F236" s="120"/>
+      <c r="G236" s="120"/>
+      <c r="H236" s="120"/>
+      <c r="I236" s="120"/>
+      <c r="J236" s="120"/>
+      <c r="K236" s="120"/>
+      <c r="L236" s="120"/>
+      <c r="M236" s="120"/>
+      <c r="N236" s="120"/>
+      <c r="O236" s="120"/>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="21"/>
@@ -42273,51 +42273,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="D52:O52"/>
-    <mergeCell ref="D53:O53"/>
-    <mergeCell ref="D78:O78"/>
-    <mergeCell ref="D93:O93"/>
-    <mergeCell ref="D94:O94"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="D133:O133"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="D119:O119"/>
-    <mergeCell ref="D132:O132"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="D158:O158"/>
-    <mergeCell ref="D171:O171"/>
-    <mergeCell ref="D172:O172"/>
-    <mergeCell ref="D210:O210"/>
-    <mergeCell ref="D211:O211"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="J185:K185"/>
     <mergeCell ref="D236:O236"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="J225:K225"/>
@@ -42334,6 +42289,51 @@
     <mergeCell ref="J224:K224"/>
     <mergeCell ref="J186:K186"/>
     <mergeCell ref="D197:O197"/>
+    <mergeCell ref="D210:O210"/>
+    <mergeCell ref="D211:O211"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="D158:O158"/>
+    <mergeCell ref="D171:O171"/>
+    <mergeCell ref="D172:O172"/>
+    <mergeCell ref="D133:O133"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="D119:O119"/>
+    <mergeCell ref="D132:O132"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="D52:O52"/>
+    <mergeCell ref="D53:O53"/>
+    <mergeCell ref="D78:O78"/>
+    <mergeCell ref="D93:O93"/>
+    <mergeCell ref="D94:O94"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K61:K67" r:id="rId1" display="123@vpbank.com.vn" xr:uid="{40EBF610-BA20-42EF-8B86-B754FA704E8A}"/>
@@ -42978,24 +42978,24 @@
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="136" t="s">
+      <c r="D37" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="136"/>
-      <c r="S37" s="136"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="120"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
@@ -43033,45 +43033,45 @@
         <v>39</v>
       </c>
       <c r="C52" s="21"/>
-      <c r="D52" s="132" t="s">
+      <c r="D52" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="133"/>
-      <c r="P52" s="133"/>
-      <c r="Q52" s="133"/>
-      <c r="R52" s="133"/>
-      <c r="S52" s="134"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="123"/>
     </row>
     <row r="53" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="34"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="131"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="125"/>
+      <c r="O53" s="125"/>
+      <c r="P53" s="125"/>
+      <c r="Q53" s="125"/>
+      <c r="R53" s="125"/>
+      <c r="S53" s="126"/>
     </row>
     <row r="54" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
@@ -43776,24 +43776,24 @@
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="136" t="s">
+      <c r="D78" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="136"/>
-      <c r="F78" s="136"/>
-      <c r="G78" s="136"/>
-      <c r="H78" s="136"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="136"/>
-      <c r="K78" s="136"/>
-      <c r="L78" s="136"/>
-      <c r="M78" s="136"/>
-      <c r="N78" s="136"/>
-      <c r="O78" s="136"/>
-      <c r="P78" s="136"/>
-      <c r="Q78" s="136"/>
-      <c r="R78" s="136"/>
-      <c r="S78" s="136"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="120"/>
+      <c r="K78" s="120"/>
+      <c r="L78" s="120"/>
+      <c r="M78" s="120"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="120"/>
+      <c r="P78" s="120"/>
+      <c r="Q78" s="120"/>
+      <c r="R78" s="120"/>
+      <c r="S78" s="120"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
@@ -43832,45 +43832,45 @@
         <v>39</v>
       </c>
       <c r="C93" s="21"/>
-      <c r="D93" s="132" t="s">
+      <c r="D93" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E93" s="133"/>
-      <c r="F93" s="133"/>
-      <c r="G93" s="133"/>
-      <c r="H93" s="133"/>
-      <c r="I93" s="133"/>
-      <c r="J93" s="133"/>
-      <c r="K93" s="133"/>
-      <c r="L93" s="133"/>
-      <c r="M93" s="133"/>
-      <c r="N93" s="133"/>
-      <c r="O93" s="133"/>
-      <c r="P93" s="133"/>
-      <c r="Q93" s="133"/>
-      <c r="R93" s="133"/>
-      <c r="S93" s="134"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="122"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="122"/>
+      <c r="M93" s="122"/>
+      <c r="N93" s="122"/>
+      <c r="O93" s="122"/>
+      <c r="P93" s="122"/>
+      <c r="Q93" s="122"/>
+      <c r="R93" s="122"/>
+      <c r="S93" s="123"/>
     </row>
     <row r="94" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="34"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="129"/>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="130"/>
-      <c r="L94" s="130"/>
-      <c r="M94" s="130"/>
-      <c r="N94" s="130"/>
-      <c r="O94" s="130"/>
-      <c r="P94" s="130"/>
-      <c r="Q94" s="130"/>
-      <c r="R94" s="130"/>
-      <c r="S94" s="131"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="125"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="125"/>
+      <c r="L94" s="125"/>
+      <c r="M94" s="125"/>
+      <c r="N94" s="125"/>
+      <c r="O94" s="125"/>
+      <c r="P94" s="125"/>
+      <c r="Q94" s="125"/>
+      <c r="R94" s="125"/>
+      <c r="S94" s="126"/>
     </row>
     <row r="95" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
@@ -43965,12 +43965,12 @@
       <c r="J98" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="K98" s="120" t="s">
+      <c r="K98" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="L98" s="127"/>
-      <c r="M98" s="127"/>
-      <c r="N98" s="121"/>
+      <c r="L98" s="136"/>
+      <c r="M98" s="136"/>
+      <c r="N98" s="134"/>
       <c r="O98" s="56" t="s">
         <v>56</v>
       </c>
@@ -43996,10 +43996,10 @@
       <c r="H99" s="48"/>
       <c r="I99" s="48"/>
       <c r="J99" s="48"/>
-      <c r="K99" s="122"/>
-      <c r="L99" s="128"/>
-      <c r="M99" s="128"/>
-      <c r="N99" s="123"/>
+      <c r="K99" s="118"/>
+      <c r="L99" s="137"/>
+      <c r="M99" s="137"/>
+      <c r="N99" s="119"/>
       <c r="O99" s="49" t="s">
         <v>61</v>
       </c>
@@ -44056,12 +44056,12 @@
       <c r="J101" s="47">
         <v>43445</v>
       </c>
-      <c r="K101" s="124" t="s">
+      <c r="K101" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L101" s="125"/>
-      <c r="M101" s="125"/>
-      <c r="N101" s="126"/>
+      <c r="L101" s="135"/>
+      <c r="M101" s="135"/>
+      <c r="N101" s="131"/>
       <c r="O101" s="57" t="s">
         <v>80</v>
       </c>
@@ -44097,12 +44097,12 @@
       <c r="J102" s="47">
         <v>766</v>
       </c>
-      <c r="K102" s="124" t="s">
+      <c r="K102" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L102" s="125"/>
-      <c r="M102" s="125"/>
-      <c r="N102" s="126"/>
+      <c r="L102" s="135"/>
+      <c r="M102" s="135"/>
+      <c r="N102" s="131"/>
       <c r="O102" s="57" t="s">
         <v>80</v>
       </c>
@@ -44138,12 +44138,12 @@
       <c r="J103" s="47">
         <v>8</v>
       </c>
-      <c r="K103" s="124" t="s">
+      <c r="K103" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L103" s="125"/>
-      <c r="M103" s="125"/>
-      <c r="N103" s="126"/>
+      <c r="L103" s="135"/>
+      <c r="M103" s="135"/>
+      <c r="N103" s="131"/>
       <c r="O103" s="47" t="s">
         <v>81</v>
       </c>
@@ -44179,12 +44179,12 @@
       <c r="J104" s="47">
         <v>786</v>
       </c>
-      <c r="K104" s="124" t="s">
+      <c r="K104" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L104" s="125"/>
-      <c r="M104" s="125"/>
-      <c r="N104" s="126"/>
+      <c r="L104" s="135"/>
+      <c r="M104" s="135"/>
+      <c r="N104" s="131"/>
       <c r="O104" s="47" t="s">
         <v>84</v>
       </c>
@@ -44218,12 +44218,12 @@
       <c r="J105" s="47">
         <v>8</v>
       </c>
-      <c r="K105" s="124" t="s">
+      <c r="K105" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L105" s="125"/>
-      <c r="M105" s="125"/>
-      <c r="N105" s="126"/>
+      <c r="L105" s="135"/>
+      <c r="M105" s="135"/>
+      <c r="N105" s="131"/>
       <c r="O105" s="47" t="s">
         <v>82</v>
       </c>
@@ -44257,12 +44257,12 @@
       <c r="J106" s="47">
         <v>6875</v>
       </c>
-      <c r="K106" s="124" t="s">
+      <c r="K106" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L106" s="125"/>
-      <c r="M106" s="125"/>
-      <c r="N106" s="126"/>
+      <c r="L106" s="135"/>
+      <c r="M106" s="135"/>
+      <c r="N106" s="131"/>
       <c r="O106" s="47" t="s">
         <v>83</v>
       </c>
@@ -44296,12 +44296,12 @@
       <c r="J107" s="47">
         <v>55675</v>
       </c>
-      <c r="K107" s="124" t="s">
+      <c r="K107" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L107" s="125"/>
-      <c r="M107" s="125"/>
-      <c r="N107" s="126"/>
+      <c r="L107" s="135"/>
+      <c r="M107" s="135"/>
+      <c r="N107" s="131"/>
       <c r="O107" s="47" t="s">
         <v>85</v>
       </c>
@@ -44553,24 +44553,24 @@
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="136" t="s">
+      <c r="D119" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="136"/>
-      <c r="F119" s="136"/>
-      <c r="G119" s="136"/>
-      <c r="H119" s="136"/>
-      <c r="I119" s="136"/>
-      <c r="J119" s="136"/>
-      <c r="K119" s="136"/>
-      <c r="L119" s="136"/>
-      <c r="M119" s="136"/>
-      <c r="N119" s="136"/>
-      <c r="O119" s="136"/>
-      <c r="P119" s="136"/>
-      <c r="Q119" s="136"/>
-      <c r="R119" s="136"/>
-      <c r="S119" s="136"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="120"/>
+      <c r="G119" s="120"/>
+      <c r="H119" s="120"/>
+      <c r="I119" s="120"/>
+      <c r="J119" s="120"/>
+      <c r="K119" s="120"/>
+      <c r="L119" s="120"/>
+      <c r="M119" s="120"/>
+      <c r="N119" s="120"/>
+      <c r="O119" s="120"/>
+      <c r="P119" s="120"/>
+      <c r="Q119" s="120"/>
+      <c r="R119" s="120"/>
+      <c r="S119" s="120"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="21"/>
@@ -44609,45 +44609,45 @@
         <v>39</v>
       </c>
       <c r="C132" s="21"/>
-      <c r="D132" s="132" t="s">
+      <c r="D132" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E132" s="133"/>
-      <c r="F132" s="133"/>
-      <c r="G132" s="133"/>
-      <c r="H132" s="133"/>
-      <c r="I132" s="133"/>
-      <c r="J132" s="133"/>
-      <c r="K132" s="133"/>
-      <c r="L132" s="133"/>
-      <c r="M132" s="133"/>
-      <c r="N132" s="133"/>
-      <c r="O132" s="133"/>
-      <c r="P132" s="133"/>
-      <c r="Q132" s="133"/>
-      <c r="R132" s="133"/>
-      <c r="S132" s="134"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
+      <c r="J132" s="122"/>
+      <c r="K132" s="122"/>
+      <c r="L132" s="122"/>
+      <c r="M132" s="122"/>
+      <c r="N132" s="122"/>
+      <c r="O132" s="122"/>
+      <c r="P132" s="122"/>
+      <c r="Q132" s="122"/>
+      <c r="R132" s="122"/>
+      <c r="S132" s="123"/>
     </row>
     <row r="133" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="34"/>
       <c r="C133" s="21"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="130"/>
-      <c r="F133" s="130"/>
-      <c r="G133" s="130"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="130"/>
-      <c r="L133" s="130"/>
-      <c r="M133" s="130"/>
-      <c r="N133" s="130"/>
-      <c r="O133" s="130"/>
-      <c r="P133" s="130"/>
-      <c r="Q133" s="130"/>
-      <c r="R133" s="130"/>
-      <c r="S133" s="131"/>
+      <c r="D133" s="124"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="125"/>
+      <c r="G133" s="125"/>
+      <c r="H133" s="125"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="125"/>
+      <c r="L133" s="125"/>
+      <c r="M133" s="125"/>
+      <c r="N133" s="125"/>
+      <c r="O133" s="125"/>
+      <c r="P133" s="125"/>
+      <c r="Q133" s="125"/>
+      <c r="R133" s="125"/>
+      <c r="S133" s="126"/>
     </row>
     <row r="134" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
@@ -45380,24 +45380,24 @@
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
-      <c r="D158" s="136" t="s">
+      <c r="D158" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="136"/>
-      <c r="F158" s="136"/>
-      <c r="G158" s="136"/>
-      <c r="H158" s="136"/>
-      <c r="I158" s="136"/>
-      <c r="J158" s="136"/>
-      <c r="K158" s="136"/>
-      <c r="L158" s="136"/>
-      <c r="M158" s="136"/>
-      <c r="N158" s="136"/>
-      <c r="O158" s="136"/>
-      <c r="P158" s="136"/>
-      <c r="Q158" s="136"/>
-      <c r="R158" s="136"/>
-      <c r="S158" s="136"/>
+      <c r="E158" s="120"/>
+      <c r="F158" s="120"/>
+      <c r="G158" s="120"/>
+      <c r="H158" s="120"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="120"/>
+      <c r="K158" s="120"/>
+      <c r="L158" s="120"/>
+      <c r="M158" s="120"/>
+      <c r="N158" s="120"/>
+      <c r="O158" s="120"/>
+      <c r="P158" s="120"/>
+      <c r="Q158" s="120"/>
+      <c r="R158" s="120"/>
+      <c r="S158" s="120"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="21"/>
@@ -45435,45 +45435,45 @@
         <v>39</v>
       </c>
       <c r="C171" s="21"/>
-      <c r="D171" s="132" t="s">
+      <c r="D171" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="E171" s="133"/>
-      <c r="F171" s="133"/>
-      <c r="G171" s="133"/>
-      <c r="H171" s="133"/>
-      <c r="I171" s="133"/>
-      <c r="J171" s="133"/>
-      <c r="K171" s="133"/>
-      <c r="L171" s="133"/>
-      <c r="M171" s="133"/>
-      <c r="N171" s="133"/>
-      <c r="O171" s="133"/>
-      <c r="P171" s="133"/>
-      <c r="Q171" s="133"/>
-      <c r="R171" s="133"/>
-      <c r="S171" s="134"/>
+      <c r="E171" s="122"/>
+      <c r="F171" s="122"/>
+      <c r="G171" s="122"/>
+      <c r="H171" s="122"/>
+      <c r="I171" s="122"/>
+      <c r="J171" s="122"/>
+      <c r="K171" s="122"/>
+      <c r="L171" s="122"/>
+      <c r="M171" s="122"/>
+      <c r="N171" s="122"/>
+      <c r="O171" s="122"/>
+      <c r="P171" s="122"/>
+      <c r="Q171" s="122"/>
+      <c r="R171" s="122"/>
+      <c r="S171" s="123"/>
     </row>
     <row r="172" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="34"/>
       <c r="C172" s="21"/>
-      <c r="D172" s="129"/>
-      <c r="E172" s="130"/>
-      <c r="F172" s="130"/>
-      <c r="G172" s="130"/>
-      <c r="H172" s="130"/>
-      <c r="I172" s="130"/>
-      <c r="J172" s="130"/>
-      <c r="K172" s="130"/>
-      <c r="L172" s="130"/>
-      <c r="M172" s="130"/>
-      <c r="N172" s="130"/>
-      <c r="O172" s="130"/>
-      <c r="P172" s="130"/>
-      <c r="Q172" s="130"/>
-      <c r="R172" s="130"/>
-      <c r="S172" s="131"/>
+      <c r="D172" s="124"/>
+      <c r="E172" s="125"/>
+      <c r="F172" s="125"/>
+      <c r="G172" s="125"/>
+      <c r="H172" s="125"/>
+      <c r="I172" s="125"/>
+      <c r="J172" s="125"/>
+      <c r="K172" s="125"/>
+      <c r="L172" s="125"/>
+      <c r="M172" s="125"/>
+      <c r="N172" s="125"/>
+      <c r="O172" s="125"/>
+      <c r="P172" s="125"/>
+      <c r="Q172" s="125"/>
+      <c r="R172" s="125"/>
+      <c r="S172" s="126"/>
     </row>
     <row r="173" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
@@ -45568,12 +45568,12 @@
       <c r="J176" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="K176" s="120" t="s">
+      <c r="K176" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="L176" s="127"/>
-      <c r="M176" s="127"/>
-      <c r="N176" s="121"/>
+      <c r="L176" s="136"/>
+      <c r="M176" s="136"/>
+      <c r="N176" s="134"/>
       <c r="O176" s="56" t="s">
         <v>56</v>
       </c>
@@ -45599,10 +45599,10 @@
       <c r="H177" s="48"/>
       <c r="I177" s="48"/>
       <c r="J177" s="48"/>
-      <c r="K177" s="122"/>
-      <c r="L177" s="128"/>
-      <c r="M177" s="128"/>
-      <c r="N177" s="123"/>
+      <c r="K177" s="118"/>
+      <c r="L177" s="137"/>
+      <c r="M177" s="137"/>
+      <c r="N177" s="119"/>
       <c r="O177" s="49" t="s">
         <v>61</v>
       </c>
@@ -45659,12 +45659,12 @@
       <c r="J179" s="47">
         <v>43445</v>
       </c>
-      <c r="K179" s="124" t="s">
+      <c r="K179" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L179" s="125"/>
-      <c r="M179" s="125"/>
-      <c r="N179" s="126"/>
+      <c r="L179" s="135"/>
+      <c r="M179" s="135"/>
+      <c r="N179" s="131"/>
       <c r="O179" s="57" t="s">
         <v>80</v>
       </c>
@@ -45700,12 +45700,12 @@
       <c r="J180" s="47">
         <v>766</v>
       </c>
-      <c r="K180" s="124" t="s">
+      <c r="K180" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L180" s="125"/>
-      <c r="M180" s="125"/>
-      <c r="N180" s="126"/>
+      <c r="L180" s="135"/>
+      <c r="M180" s="135"/>
+      <c r="N180" s="131"/>
       <c r="O180" s="57" t="s">
         <v>80</v>
       </c>
@@ -45741,12 +45741,12 @@
       <c r="J181" s="47">
         <v>8</v>
       </c>
-      <c r="K181" s="124" t="s">
+      <c r="K181" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L181" s="125"/>
-      <c r="M181" s="125"/>
-      <c r="N181" s="126"/>
+      <c r="L181" s="135"/>
+      <c r="M181" s="135"/>
+      <c r="N181" s="131"/>
       <c r="O181" s="47" t="s">
         <v>81</v>
       </c>
@@ -45782,12 +45782,12 @@
       <c r="J182" s="47">
         <v>786</v>
       </c>
-      <c r="K182" s="124" t="s">
+      <c r="K182" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L182" s="125"/>
-      <c r="M182" s="125"/>
-      <c r="N182" s="126"/>
+      <c r="L182" s="135"/>
+      <c r="M182" s="135"/>
+      <c r="N182" s="131"/>
       <c r="O182" s="47" t="s">
         <v>84</v>
       </c>
@@ -45821,12 +45821,12 @@
       <c r="J183" s="47">
         <v>8</v>
       </c>
-      <c r="K183" s="124" t="s">
+      <c r="K183" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L183" s="125"/>
-      <c r="M183" s="125"/>
-      <c r="N183" s="126"/>
+      <c r="L183" s="135"/>
+      <c r="M183" s="135"/>
+      <c r="N183" s="131"/>
       <c r="O183" s="47" t="s">
         <v>82</v>
       </c>
@@ -45860,12 +45860,12 @@
       <c r="J184" s="47">
         <v>6875</v>
       </c>
-      <c r="K184" s="124" t="s">
+      <c r="K184" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L184" s="125"/>
-      <c r="M184" s="125"/>
-      <c r="N184" s="126"/>
+      <c r="L184" s="135"/>
+      <c r="M184" s="135"/>
+      <c r="N184" s="131"/>
       <c r="O184" s="47" t="s">
         <v>83</v>
       </c>
@@ -45899,12 +45899,12 @@
       <c r="J185" s="47">
         <v>55675</v>
       </c>
-      <c r="K185" s="124" t="s">
+      <c r="K185" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L185" s="125"/>
-      <c r="M185" s="125"/>
-      <c r="N185" s="126"/>
+      <c r="L185" s="135"/>
+      <c r="M185" s="135"/>
+      <c r="N185" s="131"/>
       <c r="O185" s="47" t="s">
         <v>85</v>
       </c>
@@ -46156,24 +46156,24 @@
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
-      <c r="D197" s="136" t="s">
+      <c r="D197" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="136"/>
-      <c r="F197" s="136"/>
-      <c r="G197" s="136"/>
-      <c r="H197" s="136"/>
-      <c r="I197" s="136"/>
-      <c r="J197" s="136"/>
-      <c r="K197" s="136"/>
-      <c r="L197" s="136"/>
-      <c r="M197" s="136"/>
-      <c r="N197" s="136"/>
-      <c r="O197" s="136"/>
-      <c r="P197" s="136"/>
-      <c r="Q197" s="136"/>
-      <c r="R197" s="136"/>
-      <c r="S197" s="136"/>
+      <c r="E197" s="120"/>
+      <c r="F197" s="120"/>
+      <c r="G197" s="120"/>
+      <c r="H197" s="120"/>
+      <c r="I197" s="120"/>
+      <c r="J197" s="120"/>
+      <c r="K197" s="120"/>
+      <c r="L197" s="120"/>
+      <c r="M197" s="120"/>
+      <c r="N197" s="120"/>
+      <c r="O197" s="120"/>
+      <c r="P197" s="120"/>
+      <c r="Q197" s="120"/>
+      <c r="R197" s="120"/>
+      <c r="S197" s="120"/>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="21"/>
@@ -46198,11 +46198,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D37:S37"/>
-    <mergeCell ref="D52:S52"/>
-    <mergeCell ref="D53:S53"/>
-    <mergeCell ref="D78:S78"/>
-    <mergeCell ref="D93:S93"/>
+    <mergeCell ref="K182:N182"/>
+    <mergeCell ref="K183:N183"/>
+    <mergeCell ref="K184:N184"/>
+    <mergeCell ref="K185:N185"/>
+    <mergeCell ref="D197:S197"/>
+    <mergeCell ref="K176:N176"/>
+    <mergeCell ref="K177:N177"/>
+    <mergeCell ref="K179:N179"/>
+    <mergeCell ref="K180:N180"/>
+    <mergeCell ref="K181:N181"/>
+    <mergeCell ref="D132:S132"/>
+    <mergeCell ref="D133:S133"/>
+    <mergeCell ref="D158:S158"/>
+    <mergeCell ref="D171:S171"/>
+    <mergeCell ref="D172:S172"/>
     <mergeCell ref="D119:S119"/>
     <mergeCell ref="D94:S94"/>
     <mergeCell ref="K98:N98"/>
@@ -46214,21 +46224,11 @@
     <mergeCell ref="K105:N105"/>
     <mergeCell ref="K106:N106"/>
     <mergeCell ref="K107:N107"/>
-    <mergeCell ref="D132:S132"/>
-    <mergeCell ref="D133:S133"/>
-    <mergeCell ref="D158:S158"/>
-    <mergeCell ref="D171:S171"/>
-    <mergeCell ref="D172:S172"/>
-    <mergeCell ref="K176:N176"/>
-    <mergeCell ref="K177:N177"/>
-    <mergeCell ref="K179:N179"/>
-    <mergeCell ref="K180:N180"/>
-    <mergeCell ref="K181:N181"/>
-    <mergeCell ref="K182:N182"/>
-    <mergeCell ref="K183:N183"/>
-    <mergeCell ref="K184:N184"/>
-    <mergeCell ref="K185:N185"/>
-    <mergeCell ref="D197:S197"/>
+    <mergeCell ref="D37:S37"/>
+    <mergeCell ref="D52:S52"/>
+    <mergeCell ref="D53:S53"/>
+    <mergeCell ref="D78:S78"/>
+    <mergeCell ref="D93:S93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K60" r:id="rId1" xr:uid="{39D0575D-2178-40BB-8DEE-AB06C70EDF1A}"/>

--- a/requirement/web.xlsx
+++ b/requirement/web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dao\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8A78A-B3F0-4B70-B22A-8E6074F4A8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46816A8C-84AE-4B90-AF5E-A1EF2E5008EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C21019E-DC35-44AD-8223-71A9F4BE5FB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3C21019E-DC35-44AD-8223-71A9F4BE5FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Màn hình đăng nhập" sheetId="1" r:id="rId1"/>
@@ -9170,118 +9170,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>37129</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>66481</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9353560" cy="1237837"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72B6C07-4A35-4720-9FDE-D02B6B7CED1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37129" y="7904195"/>
-          <a:ext cx="9353560" cy="1237837"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>21815</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3445984" cy="891711"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC44B111-0F5A-4E0A-B46E-4374BA68E37B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9751518" y="8036422"/>
-          <a:ext cx="3445984" cy="891711"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>102055</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>68037</xdr:rowOff>
@@ -10013,118 +9901,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>37129</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>66481</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9353560" cy="1237837"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3C132F-CA8E-4424-85F2-EAD97A1966AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37129" y="22518267"/>
-          <a:ext cx="9353560" cy="1237837"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>21815</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3445984" cy="891711"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Picture 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC903DDE-309A-488C-9B60-CD8C942236B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9982840" y="15520351"/>
-          <a:ext cx="3445984" cy="891711"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -17259,118 +17035,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>37129</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>66481</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9353560" cy="1237837"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417E13FC-EFD0-4756-A4F5-230213326FF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37129" y="15449356"/>
-          <a:ext cx="9353560" cy="1237837"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>51274</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>79542</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3445984" cy="891711"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD80B2B-E944-43E1-9595-F32D08A708FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12414724" y="15643392"/>
-          <a:ext cx="3445984" cy="891711"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>102055</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>68037</xdr:rowOff>
@@ -17462,118 +17126,6 @@
         <a:xfrm>
           <a:off x="374197" y="17639279"/>
           <a:ext cx="365692" cy="360990"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>37129</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>66481</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9353560" cy="1237837"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32744599-F35F-4772-9E54-4B02DA6DF4BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37129" y="22593106"/>
-          <a:ext cx="9353560" cy="1237837"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>80139</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>108406</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3445984" cy="891711"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D685678-0990-42C1-A286-8BCF688A9C05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12443589" y="22816006"/>
-          <a:ext cx="3445984" cy="891711"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22716,7 +22268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400668F0-97CB-4579-A4EB-152676E4C92E}">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
@@ -23482,7 +23034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E37E14C-5C4F-4CF9-8438-25137DC3D5CC}">
   <dimension ref="A1:S315"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
@@ -29645,7 +29197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2269DA48-B7FA-44D3-A5DF-5C8109E6ACCB}">
   <dimension ref="A1:R356"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H347" sqref="H347"/>
     </sheetView>
   </sheetViews>
@@ -35695,8 +35247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC44FFEE-4AE1-45E6-93AA-3F370950AAC8}">
   <dimension ref="A1:P240"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L224" sqref="L224"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
